--- a/CPU28/单周期控制器CPU28（2020-2-5）.xlsx
+++ b/CPU28/单周期控制器CPU28（2020-2-5）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21408" windowHeight="9947" activeTab="1"/>
+    <workbookView windowWidth="11568" windowHeight="9684"/>
   </bookViews>
   <sheets>
     <sheet name="真值表" sheetId="1" r:id="rId1"/>
@@ -841,7 +841,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="55">
+  <fonts count="51">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1001,30 +1001,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Segoe UI Black"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Segoe UI Black"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Segoe UI Black"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Black"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF7030A0"/>
       <name val="Segoe UI Black"/>
       <charset val="134"/>
@@ -1032,31 +1008,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1071,15 +1038,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1093,14 +1052,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1114,9 +1097,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1129,34 +1128,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1222,7 +1198,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1285,19 +1261,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1309,13 +1279,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,13 +1291,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1351,7 +1309,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1363,31 +1393,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1399,79 +1423,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1688,6 +1652,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1698,6 +1692,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1720,41 +1732,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1769,31 +1748,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1802,16 +1766,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1820,119 +1784,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2084,19 +2048,13 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2105,16 +2063,16 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2126,40 +2084,25 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2557,8 +2500,8 @@
   </sheetPr>
   <dimension ref="A1:AR61"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="AJ25" sqref="AJ25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2631,19 +2574,19 @@
       <c r="P1" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="67" t="s">
+      <c r="Q1" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="68" t="s">
+      <c r="R1" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="68" t="s">
+      <c r="S1" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="68" t="s">
+      <c r="T1" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="68" t="s">
+      <c r="U1" s="66" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="37" t="s">
@@ -2726,92 +2669,92 @@
       <c r="C2" s="54">
         <v>0</v>
       </c>
-      <c r="D2" s="55">
-        <v>0</v>
-      </c>
-      <c r="E2" s="56">
+      <c r="D2" s="25">
+        <v>0</v>
+      </c>
+      <c r="E2" s="24">
         <f t="shared" ref="E2:E25" si="0">IF(MOD($C2,64)/32&gt;=1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="F2" s="56">
+      <c r="F2" s="24">
         <f t="shared" ref="F2:F25" si="1">IF(MOD($C2,32)/16&gt;=1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="56">
+      <c r="G2" s="24">
         <f t="shared" ref="G2:G25" si="2">IF(MOD($C2,16)/8&gt;=1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="56">
+      <c r="H2" s="24">
         <f t="shared" ref="H2:H25" si="3">IF(MOD($C2,8)/4&gt;=1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="56">
+      <c r="I2" s="24">
         <f t="shared" ref="I2:I25" si="4">IF(MOD($C2,4)/2&gt;=1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="56">
+      <c r="J2" s="24">
         <f t="shared" ref="J2:J25" si="5">IF(MOD($C2,2)&gt;=1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="K2" s="55">
+      <c r="K2" s="25">
         <f t="shared" ref="K2:K25" si="6">IF(ISNUMBER($D2),IF(MOD($D2,64)/32&gt;=1,1,0),"X")</f>
         <v>0</v>
       </c>
-      <c r="L2" s="55">
+      <c r="L2" s="25">
         <f t="shared" ref="L2:L25" si="7">IF(ISNUMBER($D2),IF(MOD($D2,32)/16&gt;=1,1,0),"X")</f>
         <v>0</v>
       </c>
-      <c r="M2" s="55">
+      <c r="M2" s="25">
         <f t="shared" ref="M2:M25" si="8">IF(ISNUMBER($D2),IF(MOD($D2,16)/8&gt;=1,1,0),"X")</f>
         <v>0</v>
       </c>
-      <c r="N2" s="55">
+      <c r="N2" s="25">
         <f t="shared" ref="N2:N25" si="9">IF(ISNUMBER($D2),IF(MOD($D2,8)/4&gt;=1,1,0),"X")</f>
         <v>0</v>
       </c>
-      <c r="O2" s="55">
+      <c r="O2" s="25">
         <f t="shared" ref="O2:O25" si="10">IF(ISNUMBER($D2),IF(MOD($D2,4)/2&gt;=1,1,0),"X")</f>
         <v>0</v>
       </c>
-      <c r="P2" s="62">
+      <c r="P2" s="60">
         <f t="shared" ref="P2:P25" si="11">IF(ISNUMBER($D2),IF(MOD($D2,2)&gt;=1,1,0),"X")</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="69">
-        <v>0</v>
-      </c>
-      <c r="R2" s="70">
+      <c r="Q2" s="67">
+        <v>0</v>
+      </c>
+      <c r="R2" s="68">
         <f t="shared" ref="R2:R25" si="12">IF(ISNUMBER($Q2),IF(MOD($Q2,16)/8&gt;=1,1,0),"X")</f>
         <v>0</v>
       </c>
-      <c r="S2" s="70">
+      <c r="S2" s="68">
         <f t="shared" ref="S2:S25" si="13">IF(ISNUMBER($Q2),IF(MOD($Q2,8)/4&gt;=1,1,0),"X")</f>
         <v>0</v>
       </c>
-      <c r="T2" s="70">
+      <c r="T2" s="68">
         <f t="shared" ref="T2:T25" si="14">IF(ISNUMBER($Q2),IF(MOD($Q2,4)/2&gt;=1,1,0),"X")</f>
         <v>0</v>
       </c>
-      <c r="U2" s="70">
+      <c r="U2" s="68">
         <f t="shared" ref="U2:U25" si="15">IF(ISNUMBER($Q2),IF(MOD($Q2,2)&gt;=1,1,0),"X")</f>
         <v>0</v>
       </c>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71">
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53">
         <v>1</v>
       </c>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71">
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53">
         <v>1</v>
       </c>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="71"/>
-      <c r="AG2" s="79"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="23"/>
       <c r="AH2" s="54"/>
       <c r="AI2" s="54"/>
       <c r="AJ2" s="54"/>
@@ -2828,109 +2771,109 @@
       <c r="A3" s="27">
         <v>2</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="55" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="28">
         <v>0</v>
       </c>
-      <c r="D3" s="58">
+      <c r="D3" s="56">
         <v>3</v>
       </c>
-      <c r="E3" s="59">
+      <c r="E3" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G3" s="59">
+      <c r="G3" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H3" s="59">
+      <c r="H3" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I3" s="59">
+      <c r="I3" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J3" s="59">
+      <c r="J3" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K3" s="58">
+      <c r="K3" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L3" s="58">
+      <c r="L3" s="56">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M3" s="58">
+      <c r="M3" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N3" s="58">
+      <c r="N3" s="56">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O3" s="58">
+      <c r="O3" s="56">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P3" s="63">
+      <c r="P3" s="61">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Q3" s="72">
+      <c r="Q3" s="69">
         <v>1</v>
       </c>
-      <c r="R3" s="73">
+      <c r="R3" s="70">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S3" s="73">
+      <c r="S3" s="70">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T3" s="73">
+      <c r="T3" s="70">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U3" s="73">
+      <c r="U3" s="70">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74">
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27">
         <v>1</v>
       </c>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="74">
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27">
         <v>1</v>
       </c>
-      <c r="AC3" s="74"/>
-      <c r="AD3" s="74"/>
-      <c r="AE3" s="74"/>
-      <c r="AF3" s="74"/>
-      <c r="AG3" s="74"/>
-      <c r="AH3" s="80"/>
-      <c r="AI3" s="80"/>
-      <c r="AJ3" s="80"/>
-      <c r="AK3" s="80"/>
-      <c r="AL3" s="80"/>
-      <c r="AM3" s="80"/>
-      <c r="AN3" s="80"/>
-      <c r="AO3" s="80"/>
-      <c r="AP3" s="80"/>
-      <c r="AQ3" s="80"/>
-      <c r="AR3" s="80"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="57"/>
+      <c r="AP3" s="57"/>
+      <c r="AQ3" s="57"/>
+      <c r="AR3" s="57"/>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="52">
@@ -2942,92 +2885,92 @@
       <c r="C4" s="54">
         <v>0</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="25">
         <v>2</v>
       </c>
-      <c r="E4" s="56">
+      <c r="E4" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="56">
+      <c r="F4" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G4" s="56">
+      <c r="G4" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H4" s="56">
+      <c r="H4" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I4" s="56">
+      <c r="I4" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J4" s="56">
+      <c r="J4" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K4" s="55">
+      <c r="K4" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L4" s="55">
+      <c r="L4" s="25">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M4" s="55">
+      <c r="M4" s="25">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N4" s="55">
+      <c r="N4" s="25">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O4" s="55">
+      <c r="O4" s="25">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P4" s="62">
+      <c r="P4" s="60">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="69">
+      <c r="Q4" s="67">
         <v>2</v>
       </c>
-      <c r="R4" s="70">
+      <c r="R4" s="68">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S4" s="70">
+      <c r="S4" s="68">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T4" s="70">
+      <c r="T4" s="68">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="U4" s="70">
+      <c r="U4" s="68">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71">
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53">
         <v>1</v>
       </c>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71">
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53">
         <v>1</v>
       </c>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="71"/>
-      <c r="AF4" s="71"/>
-      <c r="AG4" s="79"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="23"/>
       <c r="AH4" s="54"/>
       <c r="AI4" s="54"/>
       <c r="AJ4" s="54"/>
@@ -3044,109 +2987,109 @@
       <c r="A5" s="27">
         <v>4</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="55" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="28">
         <v>0</v>
       </c>
-      <c r="D5" s="58">
+      <c r="D5" s="56">
         <v>32</v>
       </c>
-      <c r="E5" s="59">
+      <c r="E5" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="59">
+      <c r="F5" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G5" s="59">
+      <c r="G5" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H5" s="59">
+      <c r="H5" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I5" s="59">
+      <c r="I5" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J5" s="59">
+      <c r="J5" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K5" s="58">
+      <c r="K5" s="56">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L5" s="58">
+      <c r="L5" s="56">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M5" s="58">
+      <c r="M5" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N5" s="58">
+      <c r="N5" s="56">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O5" s="58">
+      <c r="O5" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P5" s="63">
+      <c r="P5" s="61">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="72">
+      <c r="Q5" s="69">
         <v>5</v>
       </c>
-      <c r="R5" s="73">
+      <c r="R5" s="70">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S5" s="73">
+      <c r="S5" s="70">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="T5" s="73">
+      <c r="T5" s="70">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U5" s="73">
+      <c r="U5" s="70">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74">
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27">
         <v>1</v>
       </c>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="74"/>
-      <c r="AB5" s="74">
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27">
         <v>1</v>
       </c>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="74"/>
-      <c r="AE5" s="74"/>
-      <c r="AF5" s="74"/>
-      <c r="AG5" s="74"/>
-      <c r="AH5" s="80"/>
-      <c r="AI5" s="80"/>
-      <c r="AJ5" s="80"/>
-      <c r="AK5" s="80"/>
-      <c r="AL5" s="80"/>
-      <c r="AM5" s="80"/>
-      <c r="AN5" s="80"/>
-      <c r="AO5" s="80"/>
-      <c r="AP5" s="80"/>
-      <c r="AQ5" s="80"/>
-      <c r="AR5" s="80"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="57"/>
+      <c r="AI5" s="57"/>
+      <c r="AJ5" s="57"/>
+      <c r="AK5" s="57"/>
+      <c r="AL5" s="57"/>
+      <c r="AM5" s="57"/>
+      <c r="AN5" s="57"/>
+      <c r="AO5" s="57"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="57"/>
+      <c r="AR5" s="57"/>
     </row>
     <row r="6" spans="1:44">
       <c r="A6" s="52">
@@ -3158,92 +3101,92 @@
       <c r="C6" s="54">
         <v>0</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="25">
         <v>33</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="56">
+      <c r="F6" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G6" s="56">
+      <c r="G6" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H6" s="56">
+      <c r="H6" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I6" s="56">
+      <c r="I6" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J6" s="56">
+      <c r="J6" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K6" s="55">
+      <c r="K6" s="25">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L6" s="55">
+      <c r="L6" s="25">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M6" s="55">
+      <c r="M6" s="25">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N6" s="55">
+      <c r="N6" s="25">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O6" s="55">
+      <c r="O6" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P6" s="62">
+      <c r="P6" s="60">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Q6" s="69">
+      <c r="Q6" s="67">
         <v>5</v>
       </c>
-      <c r="R6" s="70">
+      <c r="R6" s="68">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S6" s="70">
+      <c r="S6" s="68">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="T6" s="70">
+      <c r="T6" s="68">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U6" s="70">
+      <c r="U6" s="68">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="71">
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53">
         <v>1</v>
       </c>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="71"/>
-      <c r="AB6" s="71">
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="53">
         <v>1</v>
       </c>
-      <c r="AC6" s="71"/>
-      <c r="AD6" s="71"/>
-      <c r="AE6" s="71"/>
-      <c r="AF6" s="71"/>
-      <c r="AG6" s="79"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="23"/>
       <c r="AH6" s="54"/>
       <c r="AI6" s="54"/>
       <c r="AJ6" s="54"/>
@@ -3260,109 +3203,109 @@
       <c r="A7" s="27">
         <v>6</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="55" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="28">
         <v>0</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="56">
         <v>34</v>
       </c>
-      <c r="E7" s="59">
+      <c r="E7" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="59">
+      <c r="F7" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G7" s="59">
+      <c r="G7" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H7" s="59">
+      <c r="H7" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I7" s="59">
+      <c r="I7" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J7" s="59">
+      <c r="J7" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K7" s="58">
+      <c r="K7" s="56">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L7" s="58">
+      <c r="L7" s="56">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M7" s="58">
+      <c r="M7" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N7" s="58">
+      <c r="N7" s="56">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O7" s="58">
+      <c r="O7" s="56">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P7" s="63">
+      <c r="P7" s="61">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="72">
+      <c r="Q7" s="69">
         <v>6</v>
       </c>
-      <c r="R7" s="73">
+      <c r="R7" s="70">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S7" s="73">
+      <c r="S7" s="70">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="T7" s="73">
+      <c r="T7" s="70">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="U7" s="73">
+      <c r="U7" s="70">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V7" s="74"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="74"/>
-      <c r="Y7" s="74">
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27">
         <v>1</v>
       </c>
-      <c r="Z7" s="74"/>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="74">
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27">
         <v>1</v>
       </c>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="74"/>
-      <c r="AE7" s="74"/>
-      <c r="AF7" s="74"/>
-      <c r="AG7" s="74"/>
-      <c r="AH7" s="80"/>
-      <c r="AI7" s="80"/>
-      <c r="AJ7" s="80"/>
-      <c r="AK7" s="80"/>
-      <c r="AL7" s="80"/>
-      <c r="AM7" s="80"/>
-      <c r="AN7" s="80"/>
-      <c r="AO7" s="80"/>
-      <c r="AP7" s="80"/>
-      <c r="AQ7" s="80"/>
-      <c r="AR7" s="80"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="57"/>
+      <c r="AI7" s="57"/>
+      <c r="AJ7" s="57"/>
+      <c r="AK7" s="57"/>
+      <c r="AL7" s="57"/>
+      <c r="AM7" s="57"/>
+      <c r="AN7" s="57"/>
+      <c r="AO7" s="57"/>
+      <c r="AP7" s="57"/>
+      <c r="AQ7" s="57"/>
+      <c r="AR7" s="57"/>
     </row>
     <row r="8" spans="1:44">
       <c r="A8" s="52">
@@ -3374,92 +3317,92 @@
       <c r="C8" s="54">
         <v>0</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="25">
         <v>36</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="56">
+      <c r="F8" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G8" s="56">
+      <c r="G8" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H8" s="56">
+      <c r="H8" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I8" s="56">
+      <c r="I8" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J8" s="56">
+      <c r="J8" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K8" s="55">
+      <c r="K8" s="25">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L8" s="55">
+      <c r="L8" s="25">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M8" s="55">
+      <c r="M8" s="25">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N8" s="55">
+      <c r="N8" s="25">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="O8" s="55">
+      <c r="O8" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P8" s="62">
+      <c r="P8" s="60">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="69">
+      <c r="Q8" s="67">
         <v>7</v>
       </c>
-      <c r="R8" s="70">
+      <c r="R8" s="68">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S8" s="70">
+      <c r="S8" s="68">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="T8" s="70">
+      <c r="T8" s="68">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="U8" s="70">
+      <c r="U8" s="68">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="71">
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53">
         <v>1</v>
       </c>
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="71"/>
-      <c r="AB8" s="71">
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53">
         <v>1</v>
       </c>
-      <c r="AC8" s="71"/>
-      <c r="AD8" s="71"/>
-      <c r="AE8" s="71"/>
-      <c r="AF8" s="71"/>
-      <c r="AG8" s="79"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="23"/>
       <c r="AH8" s="54"/>
       <c r="AI8" s="54"/>
       <c r="AJ8" s="54"/>
@@ -3476,109 +3419,109 @@
       <c r="A9" s="27">
         <v>8</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="55" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="28">
         <v>0</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="56">
         <v>37</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="59">
+      <c r="F9" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" s="59">
+      <c r="G9" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H9" s="59">
+      <c r="H9" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I9" s="59">
+      <c r="I9" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J9" s="59">
+      <c r="J9" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K9" s="58">
+      <c r="K9" s="56">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L9" s="58">
+      <c r="L9" s="56">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M9" s="58">
+      <c r="M9" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N9" s="58">
+      <c r="N9" s="56">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="O9" s="58">
+      <c r="O9" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P9" s="63">
+      <c r="P9" s="61">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Q9" s="72">
+      <c r="Q9" s="69">
         <v>8</v>
       </c>
-      <c r="R9" s="73">
+      <c r="R9" s="70">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="S9" s="73">
+      <c r="S9" s="70">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T9" s="73">
+      <c r="T9" s="70">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U9" s="73">
+      <c r="U9" s="70">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V9" s="74"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="74"/>
-      <c r="Y9" s="74">
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27">
         <v>1</v>
       </c>
-      <c r="Z9" s="74"/>
-      <c r="AA9" s="74"/>
-      <c r="AB9" s="74">
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27">
         <v>1</v>
       </c>
-      <c r="AC9" s="74"/>
-      <c r="AD9" s="74"/>
-      <c r="AE9" s="74"/>
-      <c r="AF9" s="74"/>
-      <c r="AG9" s="74"/>
-      <c r="AH9" s="80"/>
-      <c r="AI9" s="80"/>
-      <c r="AJ9" s="80"/>
-      <c r="AK9" s="80"/>
-      <c r="AL9" s="80"/>
-      <c r="AM9" s="80"/>
-      <c r="AN9" s="80"/>
-      <c r="AO9" s="80"/>
-      <c r="AP9" s="80"/>
-      <c r="AQ9" s="80"/>
-      <c r="AR9" s="80"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="57"/>
+      <c r="AI9" s="57"/>
+      <c r="AJ9" s="57"/>
+      <c r="AK9" s="57"/>
+      <c r="AL9" s="57"/>
+      <c r="AM9" s="57"/>
+      <c r="AN9" s="57"/>
+      <c r="AO9" s="57"/>
+      <c r="AP9" s="57"/>
+      <c r="AQ9" s="57"/>
+      <c r="AR9" s="57"/>
     </row>
     <row r="10" spans="1:44">
       <c r="A10" s="52">
@@ -3590,92 +3533,92 @@
       <c r="C10" s="54">
         <v>0</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="25">
         <v>39</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="56">
+      <c r="G10" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H10" s="56">
+      <c r="H10" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I10" s="56">
+      <c r="I10" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J10" s="56">
+      <c r="J10" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K10" s="55">
+      <c r="K10" s="25">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L10" s="55">
+      <c r="L10" s="25">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M10" s="55">
+      <c r="M10" s="25">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N10" s="55">
+      <c r="N10" s="25">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="O10" s="55">
+      <c r="O10" s="25">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P10" s="62">
+      <c r="P10" s="60">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Q10" s="69">
+      <c r="Q10" s="67">
         <v>10</v>
       </c>
-      <c r="R10" s="70">
+      <c r="R10" s="68">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="S10" s="70">
+      <c r="S10" s="68">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T10" s="70">
+      <c r="T10" s="68">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="U10" s="70">
+      <c r="U10" s="68">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V10" s="71"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="71">
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53">
         <v>1</v>
       </c>
-      <c r="Z10" s="71"/>
-      <c r="AA10" s="71"/>
-      <c r="AB10" s="71">
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53">
         <v>1</v>
       </c>
-      <c r="AC10" s="71"/>
-      <c r="AD10" s="71"/>
-      <c r="AE10" s="71"/>
-      <c r="AF10" s="71"/>
-      <c r="AG10" s="79"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="23"/>
       <c r="AH10" s="54"/>
       <c r="AI10" s="54"/>
       <c r="AJ10" s="54"/>
@@ -3692,109 +3635,109 @@
       <c r="A11" s="27">
         <v>10</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="55" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="28">
         <v>0</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="56">
         <v>42</v>
       </c>
-      <c r="E11" s="59">
+      <c r="E11" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F11" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="59">
+      <c r="G11" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H11" s="59">
+      <c r="H11" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I11" s="59">
+      <c r="I11" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J11" s="59">
+      <c r="J11" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K11" s="58">
+      <c r="K11" s="56">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L11" s="58">
+      <c r="L11" s="56">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="58">
+      <c r="M11" s="56">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N11" s="58">
+      <c r="N11" s="56">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O11" s="58">
+      <c r="O11" s="56">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P11" s="63">
+      <c r="P11" s="61">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="72">
+      <c r="Q11" s="69">
         <v>11</v>
       </c>
-      <c r="R11" s="73">
+      <c r="R11" s="70">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="S11" s="73">
+      <c r="S11" s="70">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T11" s="73">
+      <c r="T11" s="70">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="U11" s="73">
+      <c r="U11" s="70">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V11" s="74"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="74"/>
-      <c r="Y11" s="74">
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27">
         <v>1</v>
       </c>
-      <c r="Z11" s="74"/>
-      <c r="AA11" s="74"/>
-      <c r="AB11" s="74">
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27">
         <v>1</v>
       </c>
-      <c r="AC11" s="74"/>
-      <c r="AD11" s="74"/>
-      <c r="AE11" s="74"/>
-      <c r="AF11" s="74"/>
-      <c r="AG11" s="74"/>
-      <c r="AH11" s="80"/>
-      <c r="AI11" s="80"/>
-      <c r="AJ11" s="80"/>
-      <c r="AK11" s="80"/>
-      <c r="AL11" s="80"/>
-      <c r="AM11" s="80"/>
-      <c r="AN11" s="80"/>
-      <c r="AO11" s="80"/>
-      <c r="AP11" s="80"/>
-      <c r="AQ11" s="80"/>
-      <c r="AR11" s="80"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="57"/>
+      <c r="AI11" s="57"/>
+      <c r="AJ11" s="57"/>
+      <c r="AK11" s="57"/>
+      <c r="AL11" s="57"/>
+      <c r="AM11" s="57"/>
+      <c r="AN11" s="57"/>
+      <c r="AO11" s="57"/>
+      <c r="AP11" s="57"/>
+      <c r="AQ11" s="57"/>
+      <c r="AR11" s="57"/>
     </row>
     <row r="12" spans="1:44">
       <c r="A12" s="52">
@@ -3806,92 +3749,92 @@
       <c r="C12" s="54">
         <v>0</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="25">
         <v>43</v>
       </c>
-      <c r="E12" s="56">
+      <c r="E12" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G12" s="56">
+      <c r="G12" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H12" s="56">
+      <c r="H12" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I12" s="56">
+      <c r="I12" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J12" s="56">
+      <c r="J12" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K12" s="55">
+      <c r="K12" s="25">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L12" s="55">
+      <c r="L12" s="25">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M12" s="55">
+      <c r="M12" s="25">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N12" s="55">
+      <c r="N12" s="25">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O12" s="55">
+      <c r="O12" s="25">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P12" s="62">
+      <c r="P12" s="60">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Q12" s="69">
+      <c r="Q12" s="67">
         <v>12</v>
       </c>
-      <c r="R12" s="70">
+      <c r="R12" s="68">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="S12" s="70">
+      <c r="S12" s="68">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="T12" s="70">
+      <c r="T12" s="68">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U12" s="70">
+      <c r="U12" s="68">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V12" s="71"/>
-      <c r="W12" s="71"/>
-      <c r="X12" s="71"/>
-      <c r="Y12" s="71">
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53">
         <v>1</v>
       </c>
-      <c r="Z12" s="71"/>
-      <c r="AA12" s="71"/>
-      <c r="AB12" s="71">
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53">
         <v>1</v>
       </c>
-      <c r="AC12" s="71"/>
-      <c r="AD12" s="71"/>
-      <c r="AE12" s="71"/>
-      <c r="AF12" s="71"/>
-      <c r="AG12" s="79"/>
+      <c r="AC12" s="53"/>
+      <c r="AD12" s="53"/>
+      <c r="AE12" s="53"/>
+      <c r="AF12" s="53"/>
+      <c r="AG12" s="23"/>
       <c r="AH12" s="54"/>
       <c r="AI12" s="54"/>
       <c r="AJ12" s="54"/>
@@ -3908,109 +3851,109 @@
       <c r="A13" s="27">
         <v>12</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="55" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="28">
         <v>0</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="56">
         <v>8</v>
       </c>
-      <c r="E13" s="59">
+      <c r="E13" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="59">
+      <c r="F13" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G13" s="59">
+      <c r="G13" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H13" s="59">
+      <c r="H13" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I13" s="59">
+      <c r="I13" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J13" s="59">
+      <c r="J13" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K13" s="58">
+      <c r="K13" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L13" s="58">
+      <c r="L13" s="56">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M13" s="58">
+      <c r="M13" s="56">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N13" s="58">
+      <c r="N13" s="56">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O13" s="58">
+      <c r="O13" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P13" s="64">
+      <c r="P13" s="62">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="72" t="s">
+      <c r="Q13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="R13" s="73" t="str">
+      <c r="R13" s="70" t="str">
         <f t="shared" si="12"/>
         <v>X</v>
       </c>
-      <c r="S13" s="73" t="str">
+      <c r="S13" s="70" t="str">
         <f t="shared" si="13"/>
         <v>X</v>
       </c>
-      <c r="T13" s="73" t="str">
+      <c r="T13" s="70" t="str">
         <f t="shared" si="14"/>
         <v>X</v>
       </c>
-      <c r="U13" s="73" t="str">
+      <c r="U13" s="70" t="str">
         <f t="shared" si="15"/>
         <v>X</v>
       </c>
-      <c r="V13" s="74"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="74"/>
-      <c r="Y13" s="74"/>
-      <c r="Z13" s="74"/>
-      <c r="AA13" s="74"/>
-      <c r="AB13" s="74"/>
-      <c r="AC13" s="74"/>
-      <c r="AD13" s="74"/>
-      <c r="AE13" s="74">
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27">
         <v>1</v>
       </c>
-      <c r="AF13" s="74">
+      <c r="AF13" s="27">
         <v>1</v>
       </c>
-      <c r="AG13" s="74"/>
-      <c r="AH13" s="80"/>
-      <c r="AI13" s="80"/>
-      <c r="AJ13" s="80"/>
-      <c r="AK13" s="80"/>
-      <c r="AL13" s="80"/>
-      <c r="AM13" s="80"/>
-      <c r="AN13" s="80"/>
-      <c r="AO13" s="80"/>
-      <c r="AP13" s="80"/>
-      <c r="AQ13" s="80"/>
-      <c r="AR13" s="80"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="57"/>
+      <c r="AI13" s="57"/>
+      <c r="AJ13" s="57"/>
+      <c r="AK13" s="57"/>
+      <c r="AL13" s="57"/>
+      <c r="AM13" s="57"/>
+      <c r="AN13" s="57"/>
+      <c r="AO13" s="57"/>
+      <c r="AP13" s="57"/>
+      <c r="AQ13" s="57"/>
+      <c r="AR13" s="57"/>
     </row>
     <row r="14" spans="1:44">
       <c r="A14" s="52">
@@ -4022,90 +3965,90 @@
       <c r="C14" s="54">
         <v>0</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="25">
         <v>12</v>
       </c>
-      <c r="E14" s="56">
+      <c r="E14" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="56">
+      <c r="F14" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G14" s="56">
+      <c r="G14" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H14" s="56">
+      <c r="H14" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I14" s="56">
+      <c r="I14" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J14" s="56">
+      <c r="J14" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K14" s="55">
+      <c r="K14" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L14" s="55">
+      <c r="L14" s="25">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M14" s="55">
+      <c r="M14" s="25">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N14" s="55">
+      <c r="N14" s="25">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="O14" s="55">
+      <c r="O14" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P14" s="65">
+      <c r="P14" s="63">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="69" t="s">
+      <c r="Q14" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="R14" s="70" t="str">
+      <c r="R14" s="68" t="str">
         <f t="shared" si="12"/>
         <v>X</v>
       </c>
-      <c r="S14" s="70" t="str">
+      <c r="S14" s="68" t="str">
         <f t="shared" si="13"/>
         <v>X</v>
       </c>
-      <c r="T14" s="70" t="str">
+      <c r="T14" s="68" t="str">
         <f t="shared" si="14"/>
         <v>X</v>
       </c>
-      <c r="U14" s="70" t="str">
+      <c r="U14" s="68" t="str">
         <f t="shared" si="15"/>
         <v>X</v>
       </c>
-      <c r="V14" s="71"/>
-      <c r="W14" s="71"/>
-      <c r="X14" s="71"/>
-      <c r="Y14" s="71"/>
-      <c r="Z14" s="71">
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53">
         <v>1</v>
       </c>
-      <c r="AA14" s="71"/>
-      <c r="AB14" s="71"/>
-      <c r="AC14" s="71"/>
-      <c r="AD14" s="71"/>
-      <c r="AE14" s="71"/>
-      <c r="AF14" s="71"/>
-      <c r="AG14" s="79"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="53"/>
+      <c r="AD14" s="53"/>
+      <c r="AE14" s="53"/>
+      <c r="AF14" s="53"/>
+      <c r="AG14" s="23"/>
       <c r="AH14" s="54"/>
       <c r="AI14" s="54"/>
       <c r="AJ14" s="54"/>
@@ -4122,107 +4065,107 @@
       <c r="A15" s="27">
         <v>14</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="55" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="28">
         <v>2</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="59">
+      <c r="E15" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="59">
+      <c r="F15" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G15" s="59">
+      <c r="G15" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H15" s="59">
+      <c r="H15" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I15" s="59">
+      <c r="I15" s="57">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J15" s="59">
+      <c r="J15" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K15" s="58" t="str">
+      <c r="K15" s="56" t="str">
         <f t="shared" si="6"/>
         <v>X</v>
       </c>
-      <c r="L15" s="58" t="str">
+      <c r="L15" s="56" t="str">
         <f t="shared" si="7"/>
         <v>X</v>
       </c>
-      <c r="M15" s="58" t="str">
+      <c r="M15" s="56" t="str">
         <f t="shared" si="8"/>
         <v>X</v>
       </c>
-      <c r="N15" s="58" t="str">
+      <c r="N15" s="56" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O15" s="58" t="str">
+      <c r="O15" s="56" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
-      <c r="P15" s="64" t="str">
+      <c r="P15" s="62" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="Q15" s="72" t="s">
+      <c r="Q15" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="R15" s="73" t="str">
+      <c r="R15" s="70" t="str">
         <f t="shared" si="12"/>
         <v>X</v>
       </c>
-      <c r="S15" s="73" t="str">
+      <c r="S15" s="70" t="str">
         <f t="shared" si="13"/>
         <v>X</v>
       </c>
-      <c r="T15" s="73" t="str">
+      <c r="T15" s="70" t="str">
         <f t="shared" si="14"/>
         <v>X</v>
       </c>
-      <c r="U15" s="73" t="str">
+      <c r="U15" s="70" t="str">
         <f t="shared" si="15"/>
         <v>X</v>
       </c>
-      <c r="V15" s="74"/>
-      <c r="W15" s="74"/>
-      <c r="X15" s="74"/>
-      <c r="Y15" s="74"/>
-      <c r="Z15" s="74"/>
-      <c r="AA15" s="74"/>
-      <c r="AB15" s="74"/>
-      <c r="AC15" s="74"/>
-      <c r="AD15" s="74"/>
-      <c r="AE15" s="74"/>
-      <c r="AF15" s="74">
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27">
         <v>1</v>
       </c>
-      <c r="AG15" s="74"/>
-      <c r="AH15" s="80"/>
-      <c r="AI15" s="80"/>
-      <c r="AJ15" s="80"/>
-      <c r="AK15" s="80"/>
-      <c r="AL15" s="80"/>
-      <c r="AM15" s="80"/>
-      <c r="AN15" s="80"/>
-      <c r="AO15" s="80"/>
-      <c r="AP15" s="80"/>
-      <c r="AQ15" s="80"/>
-      <c r="AR15" s="80"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="57"/>
+      <c r="AI15" s="57"/>
+      <c r="AJ15" s="57"/>
+      <c r="AK15" s="57"/>
+      <c r="AL15" s="57"/>
+      <c r="AM15" s="57"/>
+      <c r="AN15" s="57"/>
+      <c r="AO15" s="57"/>
+      <c r="AP15" s="57"/>
+      <c r="AQ15" s="57"/>
+      <c r="AR15" s="57"/>
     </row>
     <row r="16" spans="1:44">
       <c r="A16" s="52">
@@ -4234,92 +4177,92 @@
       <c r="C16" s="54">
         <v>3</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="56">
+      <c r="E16" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="56">
+      <c r="F16" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G16" s="56">
+      <c r="G16" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H16" s="56">
+      <c r="H16" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I16" s="56">
+      <c r="I16" s="24">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J16" s="56">
+      <c r="J16" s="24">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="K16" s="55" t="str">
+      <c r="K16" s="25" t="str">
         <f t="shared" si="6"/>
         <v>X</v>
       </c>
-      <c r="L16" s="55" t="str">
+      <c r="L16" s="25" t="str">
         <f t="shared" si="7"/>
         <v>X</v>
       </c>
-      <c r="M16" s="55" t="str">
+      <c r="M16" s="25" t="str">
         <f t="shared" si="8"/>
         <v>X</v>
       </c>
-      <c r="N16" s="55" t="str">
+      <c r="N16" s="25" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O16" s="55" t="str">
+      <c r="O16" s="25" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
-      <c r="P16" s="65" t="str">
+      <c r="P16" s="63" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="Q16" s="69" t="s">
+      <c r="Q16" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="R16" s="70" t="str">
+      <c r="R16" s="68" t="str">
         <f t="shared" si="12"/>
         <v>X</v>
       </c>
-      <c r="S16" s="70" t="str">
+      <c r="S16" s="68" t="str">
         <f t="shared" si="13"/>
         <v>X</v>
       </c>
-      <c r="T16" s="70" t="str">
+      <c r="T16" s="68" t="str">
         <f t="shared" si="14"/>
         <v>X</v>
       </c>
-      <c r="U16" s="70" t="str">
+      <c r="U16" s="68" t="str">
         <f t="shared" si="15"/>
         <v>X</v>
       </c>
-      <c r="V16" s="71"/>
-      <c r="W16" s="71"/>
-      <c r="X16" s="71"/>
-      <c r="Y16" s="71">
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53">
         <v>1</v>
       </c>
-      <c r="Z16" s="71"/>
-      <c r="AA16" s="71"/>
-      <c r="AB16" s="71"/>
-      <c r="AC16" s="71"/>
-      <c r="AD16" s="71"/>
-      <c r="AE16" s="71"/>
-      <c r="AF16" s="71">
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="53"/>
+      <c r="AD16" s="53"/>
+      <c r="AE16" s="53"/>
+      <c r="AF16" s="53">
         <v>1</v>
       </c>
-      <c r="AG16" s="79">
+      <c r="AG16" s="23">
         <v>1</v>
       </c>
       <c r="AH16" s="54"/>
@@ -4338,107 +4281,107 @@
       <c r="A17" s="27">
         <v>16</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="55" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="28">
         <v>4</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="59">
+      <c r="E17" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="59">
+      <c r="F17" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="59">
+      <c r="G17" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H17" s="59">
+      <c r="H17" s="57">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I17" s="59">
+      <c r="I17" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J17" s="59">
+      <c r="J17" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K17" s="58" t="str">
+      <c r="K17" s="56" t="str">
         <f t="shared" si="6"/>
         <v>X</v>
       </c>
-      <c r="L17" s="58" t="str">
+      <c r="L17" s="56" t="str">
         <f t="shared" si="7"/>
         <v>X</v>
       </c>
-      <c r="M17" s="58" t="str">
+      <c r="M17" s="56" t="str">
         <f t="shared" si="8"/>
         <v>X</v>
       </c>
-      <c r="N17" s="58" t="str">
+      <c r="N17" s="56" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O17" s="58" t="str">
+      <c r="O17" s="56" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
-      <c r="P17" s="64" t="str">
+      <c r="P17" s="62" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="Q17" s="72" t="s">
+      <c r="Q17" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="R17" s="73" t="str">
+      <c r="R17" s="70" t="str">
         <f t="shared" si="12"/>
         <v>X</v>
       </c>
-      <c r="S17" s="73" t="str">
+      <c r="S17" s="70" t="str">
         <f t="shared" si="13"/>
         <v>X</v>
       </c>
-      <c r="T17" s="73" t="str">
+      <c r="T17" s="70" t="str">
         <f t="shared" si="14"/>
         <v>X</v>
       </c>
-      <c r="U17" s="73" t="str">
+      <c r="U17" s="70" t="str">
         <f t="shared" si="15"/>
         <v>X</v>
       </c>
-      <c r="V17" s="74"/>
-      <c r="W17" s="74"/>
-      <c r="X17" s="74"/>
-      <c r="Y17" s="74"/>
-      <c r="Z17" s="74"/>
-      <c r="AA17" s="74"/>
-      <c r="AB17" s="74"/>
-      <c r="AC17" s="74">
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27">
         <v>1</v>
       </c>
-      <c r="AD17" s="74"/>
-      <c r="AE17" s="74"/>
-      <c r="AF17" s="74"/>
-      <c r="AG17" s="74"/>
-      <c r="AH17" s="80"/>
-      <c r="AI17" s="80"/>
-      <c r="AJ17" s="80"/>
-      <c r="AK17" s="80"/>
-      <c r="AL17" s="80"/>
-      <c r="AM17" s="80"/>
-      <c r="AN17" s="80"/>
-      <c r="AO17" s="80"/>
-      <c r="AP17" s="80"/>
-      <c r="AQ17" s="80"/>
-      <c r="AR17" s="80"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="57"/>
+      <c r="AI17" s="57"/>
+      <c r="AJ17" s="57"/>
+      <c r="AK17" s="57"/>
+      <c r="AL17" s="57"/>
+      <c r="AM17" s="57"/>
+      <c r="AN17" s="57"/>
+      <c r="AO17" s="57"/>
+      <c r="AP17" s="57"/>
+      <c r="AQ17" s="57"/>
+      <c r="AR17" s="57"/>
     </row>
     <row r="18" spans="1:44">
       <c r="A18" s="52">
@@ -4450,90 +4393,90 @@
       <c r="C18" s="54">
         <v>5</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="56">
+      <c r="E18" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="56">
+      <c r="F18" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G18" s="56">
+      <c r="G18" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H18" s="56">
+      <c r="H18" s="24">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I18" s="56">
+      <c r="I18" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J18" s="56">
+      <c r="J18" s="24">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="K18" s="55" t="str">
+      <c r="K18" s="25" t="str">
         <f t="shared" si="6"/>
         <v>X</v>
       </c>
-      <c r="L18" s="55" t="str">
+      <c r="L18" s="25" t="str">
         <f t="shared" si="7"/>
         <v>X</v>
       </c>
-      <c r="M18" s="55" t="str">
+      <c r="M18" s="25" t="str">
         <f t="shared" si="8"/>
         <v>X</v>
       </c>
-      <c r="N18" s="55" t="str">
+      <c r="N18" s="25" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O18" s="55" t="str">
+      <c r="O18" s="25" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
-      <c r="P18" s="65" t="str">
+      <c r="P18" s="63" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="Q18" s="69" t="s">
+      <c r="Q18" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="R18" s="70" t="str">
+      <c r="R18" s="68" t="str">
         <f t="shared" si="12"/>
         <v>X</v>
       </c>
-      <c r="S18" s="70" t="str">
+      <c r="S18" s="68" t="str">
         <f t="shared" si="13"/>
         <v>X</v>
       </c>
-      <c r="T18" s="70" t="str">
+      <c r="T18" s="68" t="str">
         <f t="shared" si="14"/>
         <v>X</v>
       </c>
-      <c r="U18" s="70" t="str">
+      <c r="U18" s="68" t="str">
         <f t="shared" si="15"/>
         <v>X</v>
       </c>
-      <c r="V18" s="71"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="71"/>
-      <c r="Y18" s="71"/>
-      <c r="Z18" s="71"/>
-      <c r="AA18" s="71"/>
-      <c r="AB18" s="71"/>
-      <c r="AC18" s="71"/>
-      <c r="AD18" s="71">
+      <c r="V18" s="53"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="53"/>
+      <c r="Z18" s="53"/>
+      <c r="AA18" s="53"/>
+      <c r="AB18" s="53"/>
+      <c r="AC18" s="53"/>
+      <c r="AD18" s="53">
         <v>1</v>
       </c>
-      <c r="AE18" s="71"/>
-      <c r="AF18" s="71"/>
-      <c r="AG18" s="79"/>
+      <c r="AE18" s="53"/>
+      <c r="AF18" s="53"/>
+      <c r="AG18" s="23"/>
       <c r="AH18" s="54"/>
       <c r="AI18" s="54"/>
       <c r="AJ18" s="54"/>
@@ -4550,111 +4493,111 @@
       <c r="A19" s="27">
         <v>18</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="55" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="28">
         <v>8</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="59">
+      <c r="E19" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="59">
+      <c r="F19" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G19" s="59">
+      <c r="G19" s="57">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H19" s="59">
+      <c r="H19" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I19" s="59">
+      <c r="I19" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J19" s="59">
+      <c r="J19" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K19" s="58" t="str">
+      <c r="K19" s="56" t="str">
         <f t="shared" si="6"/>
         <v>X</v>
       </c>
-      <c r="L19" s="58" t="str">
+      <c r="L19" s="56" t="str">
         <f t="shared" si="7"/>
         <v>X</v>
       </c>
-      <c r="M19" s="58" t="str">
+      <c r="M19" s="56" t="str">
         <f t="shared" si="8"/>
         <v>X</v>
       </c>
-      <c r="N19" s="58" t="str">
+      <c r="N19" s="56" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O19" s="58" t="str">
+      <c r="O19" s="56" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
-      <c r="P19" s="64" t="str">
+      <c r="P19" s="62" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="Q19" s="72">
+      <c r="Q19" s="69">
         <v>5</v>
       </c>
-      <c r="R19" s="73">
+      <c r="R19" s="70">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S19" s="73">
+      <c r="S19" s="70">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="T19" s="73">
+      <c r="T19" s="70">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U19" s="73">
+      <c r="U19" s="70">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V19" s="74"/>
-      <c r="W19" s="74"/>
-      <c r="X19" s="74">
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27">
         <v>1</v>
       </c>
-      <c r="Y19" s="74">
+      <c r="Y19" s="27">
         <v>1</v>
       </c>
-      <c r="Z19" s="74"/>
-      <c r="AA19" s="74">
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27">
         <v>1</v>
       </c>
-      <c r="AB19" s="74"/>
-      <c r="AC19" s="74"/>
-      <c r="AD19" s="74"/>
-      <c r="AE19" s="74"/>
-      <c r="AF19" s="74"/>
-      <c r="AG19" s="74"/>
-      <c r="AH19" s="80"/>
-      <c r="AI19" s="80"/>
-      <c r="AJ19" s="80"/>
-      <c r="AK19" s="80"/>
-      <c r="AL19" s="80"/>
-      <c r="AM19" s="80"/>
-      <c r="AN19" s="80"/>
-      <c r="AO19" s="80"/>
-      <c r="AP19" s="80"/>
-      <c r="AQ19" s="80"/>
-      <c r="AR19" s="80"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="57"/>
+      <c r="AI19" s="57"/>
+      <c r="AJ19" s="57"/>
+      <c r="AK19" s="57"/>
+      <c r="AL19" s="57"/>
+      <c r="AM19" s="57"/>
+      <c r="AN19" s="57"/>
+      <c r="AO19" s="57"/>
+      <c r="AP19" s="57"/>
+      <c r="AQ19" s="57"/>
+      <c r="AR19" s="57"/>
     </row>
     <row r="20" spans="1:44">
       <c r="A20" s="52">
@@ -4666,92 +4609,92 @@
       <c r="C20" s="54">
         <v>12</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="56">
+      <c r="E20" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="56">
+      <c r="F20" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G20" s="56">
+      <c r="G20" s="24">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H20" s="56">
+      <c r="H20" s="24">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I20" s="56">
+      <c r="I20" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J20" s="56">
+      <c r="J20" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K20" s="55" t="str">
+      <c r="K20" s="25" t="str">
         <f t="shared" si="6"/>
         <v>X</v>
       </c>
-      <c r="L20" s="55" t="str">
+      <c r="L20" s="25" t="str">
         <f t="shared" si="7"/>
         <v>X</v>
       </c>
-      <c r="M20" s="55" t="str">
+      <c r="M20" s="25" t="str">
         <f t="shared" si="8"/>
         <v>X</v>
       </c>
-      <c r="N20" s="55" t="str">
+      <c r="N20" s="25" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O20" s="55" t="str">
+      <c r="O20" s="25" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
-      <c r="P20" s="65" t="str">
+      <c r="P20" s="63" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="Q20" s="69">
+      <c r="Q20" s="67">
         <v>7</v>
       </c>
-      <c r="R20" s="70">
+      <c r="R20" s="68">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S20" s="70">
+      <c r="S20" s="68">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="T20" s="70">
+      <c r="T20" s="68">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="U20" s="70">
+      <c r="U20" s="68">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V20" s="71"/>
-      <c r="W20" s="71"/>
-      <c r="X20" s="71">
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="53">
         <v>1</v>
       </c>
-      <c r="Y20" s="71">
+      <c r="Y20" s="53">
         <v>1</v>
       </c>
-      <c r="Z20" s="71"/>
-      <c r="AA20" s="71"/>
-      <c r="AB20" s="71"/>
-      <c r="AC20" s="71"/>
-      <c r="AD20" s="71"/>
-      <c r="AE20" s="71"/>
-      <c r="AF20" s="71"/>
-      <c r="AG20" s="79"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="53"/>
+      <c r="AB20" s="53"/>
+      <c r="AC20" s="53"/>
+      <c r="AD20" s="53"/>
+      <c r="AE20" s="53"/>
+      <c r="AF20" s="53"/>
+      <c r="AG20" s="23"/>
       <c r="AH20" s="54"/>
       <c r="AI20" s="54"/>
       <c r="AJ20" s="54"/>
@@ -4768,111 +4711,111 @@
       <c r="A21" s="27">
         <v>20</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="55" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="28">
         <v>9</v>
       </c>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="59">
+      <c r="E21" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="59">
+      <c r="F21" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G21" s="59">
+      <c r="G21" s="57">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H21" s="59">
+      <c r="H21" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I21" s="59">
+      <c r="I21" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J21" s="59">
+      <c r="J21" s="57">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="K21" s="58" t="str">
+      <c r="K21" s="56" t="str">
         <f t="shared" si="6"/>
         <v>X</v>
       </c>
-      <c r="L21" s="58" t="str">
+      <c r="L21" s="56" t="str">
         <f t="shared" si="7"/>
         <v>X</v>
       </c>
-      <c r="M21" s="58" t="str">
+      <c r="M21" s="56" t="str">
         <f t="shared" si="8"/>
         <v>X</v>
       </c>
-      <c r="N21" s="58" t="str">
+      <c r="N21" s="56" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O21" s="58" t="str">
+      <c r="O21" s="56" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
-      <c r="P21" s="64" t="str">
+      <c r="P21" s="62" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="Q21" s="72">
+      <c r="Q21" s="69">
         <v>5</v>
       </c>
-      <c r="R21" s="73">
+      <c r="R21" s="70">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S21" s="73">
+      <c r="S21" s="70">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="T21" s="73">
+      <c r="T21" s="70">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U21" s="73">
+      <c r="U21" s="70">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V21" s="74"/>
-      <c r="W21" s="74"/>
-      <c r="X21" s="74">
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27">
         <v>1</v>
       </c>
-      <c r="Y21" s="74">
+      <c r="Y21" s="27">
         <v>1</v>
       </c>
-      <c r="Z21" s="74"/>
-      <c r="AA21" s="74">
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27">
         <v>1</v>
       </c>
-      <c r="AB21" s="74"/>
-      <c r="AC21" s="74"/>
-      <c r="AD21" s="74"/>
-      <c r="AE21" s="74"/>
-      <c r="AF21" s="74"/>
-      <c r="AG21" s="74"/>
-      <c r="AH21" s="80"/>
-      <c r="AI21" s="80"/>
-      <c r="AJ21" s="80"/>
-      <c r="AK21" s="80"/>
-      <c r="AL21" s="80"/>
-      <c r="AM21" s="80"/>
-      <c r="AN21" s="80"/>
-      <c r="AO21" s="80"/>
-      <c r="AP21" s="80"/>
-      <c r="AQ21" s="80"/>
-      <c r="AR21" s="80"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="57"/>
+      <c r="AI21" s="57"/>
+      <c r="AJ21" s="57"/>
+      <c r="AK21" s="57"/>
+      <c r="AL21" s="57"/>
+      <c r="AM21" s="57"/>
+      <c r="AN21" s="57"/>
+      <c r="AO21" s="57"/>
+      <c r="AP21" s="57"/>
+      <c r="AQ21" s="57"/>
+      <c r="AR21" s="57"/>
     </row>
     <row r="22" spans="1:44">
       <c r="A22" s="52">
@@ -4884,94 +4827,94 @@
       <c r="C22" s="54">
         <v>10</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="56">
+      <c r="E22" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="56">
+      <c r="F22" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G22" s="56">
+      <c r="G22" s="24">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H22" s="56">
+      <c r="H22" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I22" s="56">
+      <c r="I22" s="24">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J22" s="56">
+      <c r="J22" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K22" s="55" t="str">
+      <c r="K22" s="25" t="str">
         <f t="shared" si="6"/>
         <v>X</v>
       </c>
-      <c r="L22" s="55" t="str">
+      <c r="L22" s="25" t="str">
         <f t="shared" si="7"/>
         <v>X</v>
       </c>
-      <c r="M22" s="55" t="str">
+      <c r="M22" s="25" t="str">
         <f t="shared" si="8"/>
         <v>X</v>
       </c>
-      <c r="N22" s="55" t="str">
+      <c r="N22" s="25" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O22" s="55" t="str">
+      <c r="O22" s="25" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
-      <c r="P22" s="65" t="str">
+      <c r="P22" s="63" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="Q22" s="69">
+      <c r="Q22" s="67">
         <v>11</v>
       </c>
-      <c r="R22" s="70">
+      <c r="R22" s="68">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="S22" s="70">
+      <c r="S22" s="68">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T22" s="70">
+      <c r="T22" s="68">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="U22" s="70">
+      <c r="U22" s="68">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V22" s="71"/>
-      <c r="W22" s="71"/>
-      <c r="X22" s="71">
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53">
         <v>1</v>
       </c>
-      <c r="Y22" s="71">
+      <c r="Y22" s="53">
         <v>1</v>
       </c>
-      <c r="Z22" s="71"/>
-      <c r="AA22" s="71">
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53">
         <v>1</v>
       </c>
-      <c r="AB22" s="71"/>
-      <c r="AC22" s="71"/>
-      <c r="AD22" s="71"/>
-      <c r="AE22" s="71"/>
-      <c r="AF22" s="71"/>
-      <c r="AG22" s="79"/>
+      <c r="AB22" s="53"/>
+      <c r="AC22" s="53"/>
+      <c r="AD22" s="53"/>
+      <c r="AE22" s="53"/>
+      <c r="AF22" s="53"/>
+      <c r="AG22" s="23"/>
       <c r="AH22" s="54"/>
       <c r="AI22" s="54"/>
       <c r="AJ22" s="54"/>
@@ -4988,109 +4931,109 @@
       <c r="A23" s="27">
         <v>22</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="55" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="28">
         <v>13</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="59">
+      <c r="E23" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="59">
+      <c r="F23" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G23" s="59">
+      <c r="G23" s="57">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H23" s="59">
+      <c r="H23" s="57">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I23" s="59">
+      <c r="I23" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J23" s="59">
+      <c r="J23" s="57">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="K23" s="58" t="str">
+      <c r="K23" s="56" t="str">
         <f t="shared" si="6"/>
         <v>X</v>
       </c>
-      <c r="L23" s="58" t="str">
+      <c r="L23" s="56" t="str">
         <f t="shared" si="7"/>
         <v>X</v>
       </c>
-      <c r="M23" s="58" t="str">
+      <c r="M23" s="56" t="str">
         <f t="shared" si="8"/>
         <v>X</v>
       </c>
-      <c r="N23" s="58" t="str">
+      <c r="N23" s="56" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O23" s="58" t="str">
+      <c r="O23" s="56" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
-      <c r="P23" s="64" t="str">
+      <c r="P23" s="62" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="Q23" s="72">
+      <c r="Q23" s="69">
         <v>8</v>
       </c>
-      <c r="R23" s="73">
+      <c r="R23" s="70">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="S23" s="73">
+      <c r="S23" s="70">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T23" s="73">
+      <c r="T23" s="70">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U23" s="73">
+      <c r="U23" s="70">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V23" s="74"/>
-      <c r="W23" s="74"/>
-      <c r="X23" s="74">
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27">
         <v>1</v>
       </c>
-      <c r="Y23" s="74">
+      <c r="Y23" s="27">
         <v>1</v>
       </c>
-      <c r="Z23" s="74"/>
-      <c r="AA23" s="74"/>
-      <c r="AB23" s="74"/>
-      <c r="AC23" s="74"/>
-      <c r="AD23" s="74"/>
-      <c r="AE23" s="74"/>
-      <c r="AF23" s="74"/>
-      <c r="AG23" s="74"/>
-      <c r="AH23" s="80"/>
-      <c r="AI23" s="80"/>
-      <c r="AJ23" s="80"/>
-      <c r="AK23" s="80"/>
-      <c r="AL23" s="80"/>
-      <c r="AM23" s="80"/>
-      <c r="AN23" s="80"/>
-      <c r="AO23" s="80"/>
-      <c r="AP23" s="80"/>
-      <c r="AQ23" s="80"/>
-      <c r="AR23" s="80"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="57"/>
+      <c r="AI23" s="57"/>
+      <c r="AJ23" s="57"/>
+      <c r="AK23" s="57"/>
+      <c r="AL23" s="57"/>
+      <c r="AM23" s="57"/>
+      <c r="AN23" s="57"/>
+      <c r="AO23" s="57"/>
+      <c r="AP23" s="57"/>
+      <c r="AQ23" s="57"/>
+      <c r="AR23" s="57"/>
     </row>
     <row r="24" spans="1:44">
       <c r="A24" s="52">
@@ -5102,96 +5045,96 @@
       <c r="C24" s="54">
         <v>35</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="56">
+      <c r="E24" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F24" s="56">
+      <c r="F24" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G24" s="56">
+      <c r="G24" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H24" s="56">
+      <c r="H24" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I24" s="56">
+      <c r="I24" s="24">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J24" s="56">
+      <c r="J24" s="24">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="K24" s="55" t="str">
+      <c r="K24" s="25" t="str">
         <f t="shared" si="6"/>
         <v>X</v>
       </c>
-      <c r="L24" s="55" t="str">
+      <c r="L24" s="25" t="str">
         <f t="shared" si="7"/>
         <v>X</v>
       </c>
-      <c r="M24" s="55" t="str">
+      <c r="M24" s="25" t="str">
         <f t="shared" si="8"/>
         <v>X</v>
       </c>
-      <c r="N24" s="55" t="str">
+      <c r="N24" s="25" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O24" s="55" t="str">
+      <c r="O24" s="25" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
-      <c r="P24" s="65" t="str">
+      <c r="P24" s="63" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="Q24" s="69">
+      <c r="Q24" s="67">
         <v>5</v>
       </c>
-      <c r="R24" s="70">
+      <c r="R24" s="68">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S24" s="70">
+      <c r="S24" s="68">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="T24" s="70">
+      <c r="T24" s="68">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U24" s="70">
+      <c r="U24" s="68">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V24" s="71">
+      <c r="V24" s="53">
         <v>1</v>
       </c>
-      <c r="W24" s="71"/>
-      <c r="X24" s="71">
+      <c r="W24" s="53"/>
+      <c r="X24" s="53">
         <v>1</v>
       </c>
-      <c r="Y24" s="71">
+      <c r="Y24" s="53">
         <v>1</v>
       </c>
-      <c r="Z24" s="71"/>
-      <c r="AA24" s="71">
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="53">
         <v>1</v>
       </c>
-      <c r="AB24" s="71"/>
-      <c r="AC24" s="71"/>
-      <c r="AD24" s="71"/>
-      <c r="AE24" s="71"/>
-      <c r="AF24" s="71"/>
-      <c r="AG24" s="79"/>
+      <c r="AB24" s="53"/>
+      <c r="AC24" s="53"/>
+      <c r="AD24" s="53"/>
+      <c r="AE24" s="53"/>
+      <c r="AF24" s="53"/>
+      <c r="AG24" s="23"/>
       <c r="AH24" s="54"/>
       <c r="AI24" s="54"/>
       <c r="AJ24" s="54"/>
@@ -5208,111 +5151,111 @@
       <c r="A25" s="27">
         <v>24</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="55" t="s">
         <v>55</v>
       </c>
       <c r="C25" s="28">
         <v>43</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="59">
+      <c r="E25" s="57">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F25" s="59">
+      <c r="F25" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G25" s="59">
+      <c r="G25" s="57">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H25" s="59">
+      <c r="H25" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I25" s="59">
+      <c r="I25" s="57">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J25" s="59">
+      <c r="J25" s="57">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="K25" s="58" t="str">
+      <c r="K25" s="56" t="str">
         <f t="shared" si="6"/>
         <v>X</v>
       </c>
-      <c r="L25" s="58" t="str">
+      <c r="L25" s="56" t="str">
         <f t="shared" si="7"/>
         <v>X</v>
       </c>
-      <c r="M25" s="58" t="str">
+      <c r="M25" s="56" t="str">
         <f t="shared" si="8"/>
         <v>X</v>
       </c>
-      <c r="N25" s="58" t="str">
+      <c r="N25" s="56" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O25" s="58" t="str">
+      <c r="O25" s="56" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
-      <c r="P25" s="64" t="str">
+      <c r="P25" s="62" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="Q25" s="72">
+      <c r="Q25" s="69">
         <v>5</v>
       </c>
-      <c r="R25" s="73">
+      <c r="R25" s="70">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S25" s="73">
+      <c r="S25" s="70">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="T25" s="73">
+      <c r="T25" s="70">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U25" s="73">
+      <c r="U25" s="70">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V25" s="74"/>
-      <c r="W25" s="74">
+      <c r="V25" s="27"/>
+      <c r="W25" s="27">
         <v>1</v>
       </c>
-      <c r="X25" s="74">
+      <c r="X25" s="27">
         <v>1</v>
       </c>
-      <c r="Y25" s="74"/>
-      <c r="Z25" s="74"/>
-      <c r="AA25" s="74">
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27">
         <v>1</v>
       </c>
-      <c r="AB25" s="74"/>
-      <c r="AC25" s="74"/>
-      <c r="AD25" s="74"/>
-      <c r="AE25" s="74"/>
-      <c r="AF25" s="74"/>
-      <c r="AG25" s="74"/>
-      <c r="AH25" s="80"/>
-      <c r="AI25" s="80"/>
-      <c r="AJ25" s="80"/>
-      <c r="AK25" s="80"/>
-      <c r="AL25" s="80"/>
-      <c r="AM25" s="80"/>
-      <c r="AN25" s="80"/>
-      <c r="AO25" s="80"/>
-      <c r="AP25" s="80"/>
-      <c r="AQ25" s="80"/>
-      <c r="AR25" s="80"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="57"/>
+      <c r="AI25" s="57"/>
+      <c r="AJ25" s="57"/>
+      <c r="AK25" s="57"/>
+      <c r="AL25" s="57"/>
+      <c r="AM25" s="57"/>
+      <c r="AN25" s="57"/>
+      <c r="AO25" s="57"/>
+      <c r="AP25" s="57"/>
+      <c r="AQ25" s="57"/>
+      <c r="AR25" s="57"/>
     </row>
     <row r="26" spans="1:44">
       <c r="A26" s="52">
@@ -5324,7 +5267,7 @@
       <c r="C26" s="54">
         <v>0</v>
       </c>
-      <c r="D26" s="60">
+      <c r="D26" s="58">
         <v>35</v>
       </c>
       <c r="E26" s="54">
@@ -5351,23 +5294,23 @@
         <f t="shared" ref="J3:J61" si="21">IF(ISNUMBER($C26),IF(MOD($C26,2)&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="K26" s="60">
+      <c r="K26" s="58">
         <f t="shared" ref="K3:K61" si="22">IF(ISNUMBER($D26),IF(MOD($D26,64)/32&gt;=1,1,0),"")</f>
         <v>1</v>
       </c>
-      <c r="L26" s="60">
+      <c r="L26" s="58">
         <f t="shared" ref="L3:L61" si="23">IF(ISNUMBER($D26),IF(MOD($D26,32)/16&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="M26" s="60">
+      <c r="M26" s="58">
         <f t="shared" ref="M3:M61" si="24">IF(ISNUMBER($D26),IF(MOD($D26,16)/8&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="N26" s="60">
+      <c r="N26" s="58">
         <f t="shared" ref="N3:N61" si="25">IF(ISNUMBER($D26),IF(MOD($D26,8)/4&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="O26" s="60">
+      <c r="O26" s="58">
         <f t="shared" ref="O3:O61" si="26">IF(ISNUMBER($D26),IF(MOD($D26,4)/2&gt;=1,1,0),"")</f>
         <v>1</v>
       </c>
@@ -5375,13 +5318,13 @@
         <f t="shared" ref="P3:P61" si="27">IF(ISNUMBER($D26),IF(MOD($D26,2)&gt;=1,1,0),"")</f>
         <v>1</v>
       </c>
-      <c r="Q26" s="75">
+      <c r="Q26" s="71">
         <v>6</v>
       </c>
-      <c r="R26" s="76"/>
-      <c r="S26" s="76"/>
-      <c r="T26" s="76"/>
-      <c r="U26" s="76"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="72"/>
       <c r="V26" s="53"/>
       <c r="W26" s="53"/>
       <c r="X26" s="53"/>
@@ -5414,7 +5357,7 @@
       <c r="A27" s="27">
         <v>26</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="55" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="28">
@@ -5423,47 +5366,47 @@
       <c r="D27" s="29">
         <v>38</v>
       </c>
-      <c r="E27" s="61">
+      <c r="E27" s="59">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F27" s="61">
+      <c r="F27" s="59">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="G27" s="61">
+      <c r="G27" s="59">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="H27" s="61">
+      <c r="H27" s="59">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I27" s="61">
+      <c r="I27" s="59">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="J27" s="61">
+      <c r="J27" s="59">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="K27" s="66">
+      <c r="K27" s="64">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="L27" s="66">
+      <c r="L27" s="64">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="M27" s="66">
+      <c r="M27" s="64">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="N27" s="66">
+      <c r="N27" s="64">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="O27" s="66">
+      <c r="O27" s="64">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -5471,13 +5414,13 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="77">
+      <c r="Q27" s="73">
         <v>9</v>
       </c>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="78"/>
+      <c r="R27" s="70"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="70"/>
       <c r="V27" s="27"/>
       <c r="W27" s="27"/>
       <c r="X27" s="27"/>
@@ -5494,17 +5437,17 @@
       <c r="AE27" s="27"/>
       <c r="AF27" s="27"/>
       <c r="AG27" s="27"/>
-      <c r="AH27" s="80"/>
-      <c r="AI27" s="80"/>
-      <c r="AJ27" s="80"/>
-      <c r="AK27" s="80"/>
-      <c r="AL27" s="80"/>
-      <c r="AM27" s="80"/>
-      <c r="AN27" s="80"/>
-      <c r="AO27" s="80"/>
-      <c r="AP27" s="80"/>
-      <c r="AQ27" s="80"/>
-      <c r="AR27" s="80"/>
+      <c r="AH27" s="57"/>
+      <c r="AI27" s="57"/>
+      <c r="AJ27" s="57"/>
+      <c r="AK27" s="57"/>
+      <c r="AL27" s="57"/>
+      <c r="AM27" s="57"/>
+      <c r="AN27" s="57"/>
+      <c r="AO27" s="57"/>
+      <c r="AP27" s="57"/>
+      <c r="AQ27" s="57"/>
+      <c r="AR27" s="57"/>
     </row>
     <row r="28" spans="1:44">
       <c r="A28" s="52">
@@ -5516,7 +5459,7 @@
       <c r="C28" s="54">
         <v>36</v>
       </c>
-      <c r="D28" s="60" t="s">
+      <c r="D28" s="58" t="s">
         <v>47</v>
       </c>
       <c r="E28" s="54">
@@ -5543,23 +5486,23 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="K28" s="60" t="str">
+      <c r="K28" s="58" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L28" s="60" t="str">
+      <c r="L28" s="58" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M28" s="60" t="str">
+      <c r="M28" s="58" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N28" s="60" t="str">
+      <c r="N28" s="58" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O28" s="60" t="str">
+      <c r="O28" s="58" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -5567,13 +5510,13 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q28" s="75">
+      <c r="Q28" s="71">
         <v>5</v>
       </c>
-      <c r="R28" s="76"/>
-      <c r="S28" s="76"/>
-      <c r="T28" s="76"/>
-      <c r="U28" s="76"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="72"/>
+      <c r="U28" s="72"/>
       <c r="V28" s="53">
         <v>1</v>
       </c>
@@ -5612,7 +5555,7 @@
       <c r="A29" s="27">
         <v>28</v>
       </c>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="55" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="28">
@@ -5621,47 +5564,47 @@
       <c r="D29" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="61">
+      <c r="E29" s="59">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F29" s="61">
+      <c r="F29" s="59">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="G29" s="61">
+      <c r="G29" s="59">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="H29" s="61">
+      <c r="H29" s="59">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I29" s="61">
+      <c r="I29" s="59">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="J29" s="61">
+      <c r="J29" s="59">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="K29" s="66" t="str">
+      <c r="K29" s="64" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L29" s="66" t="str">
+      <c r="L29" s="64" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M29" s="66" t="str">
+      <c r="M29" s="64" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N29" s="66" t="str">
+      <c r="N29" s="64" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O29" s="66" t="str">
+      <c r="O29" s="64" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -5669,13 +5612,13 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q29" s="77">
-        <v>11</v>
-      </c>
-      <c r="R29" s="78"/>
-      <c r="S29" s="78"/>
-      <c r="T29" s="78"/>
-      <c r="U29" s="78"/>
+      <c r="Q29" s="73">
+        <v>10</v>
+      </c>
+      <c r="R29" s="70"/>
+      <c r="S29" s="70"/>
+      <c r="T29" s="70"/>
+      <c r="U29" s="70"/>
       <c r="V29" s="27"/>
       <c r="W29" s="27"/>
       <c r="X29" s="27"/>
@@ -5688,25 +5631,25 @@
       <c r="AE29" s="27"/>
       <c r="AF29" s="27"/>
       <c r="AG29" s="27"/>
-      <c r="AH29" s="80"/>
-      <c r="AI29" s="80">
+      <c r="AH29" s="57"/>
+      <c r="AI29" s="57">
         <v>1</v>
       </c>
-      <c r="AJ29" s="80"/>
-      <c r="AK29" s="80"/>
-      <c r="AL29" s="80"/>
-      <c r="AM29" s="80"/>
-      <c r="AN29" s="80"/>
-      <c r="AO29" s="80"/>
-      <c r="AP29" s="80"/>
-      <c r="AQ29" s="80"/>
-      <c r="AR29" s="80"/>
+      <c r="AJ29" s="57"/>
+      <c r="AK29" s="57"/>
+      <c r="AL29" s="57"/>
+      <c r="AM29" s="57"/>
+      <c r="AN29" s="57"/>
+      <c r="AO29" s="57"/>
+      <c r="AP29" s="57"/>
+      <c r="AQ29" s="57"/>
+      <c r="AR29" s="57"/>
     </row>
     <row r="30" spans="1:44">
       <c r="A30" s="52"/>
       <c r="B30" s="53"/>
       <c r="C30" s="54"/>
-      <c r="D30" s="60"/>
+      <c r="D30" s="58"/>
       <c r="E30" s="54" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -5731,23 +5674,23 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K30" s="60" t="str">
+      <c r="K30" s="58" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L30" s="60" t="str">
+      <c r="L30" s="58" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M30" s="60" t="str">
+      <c r="M30" s="58" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N30" s="60" t="str">
+      <c r="N30" s="58" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O30" s="60" t="str">
+      <c r="O30" s="58" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -5755,11 +5698,11 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q30" s="75"/>
-      <c r="R30" s="76"/>
-      <c r="S30" s="76"/>
-      <c r="T30" s="76"/>
-      <c r="U30" s="76"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="72"/>
+      <c r="S30" s="72"/>
+      <c r="T30" s="72"/>
+      <c r="U30" s="72"/>
       <c r="V30" s="53"/>
       <c r="W30" s="53"/>
       <c r="X30" s="53"/>
@@ -5786,50 +5729,50 @@
     </row>
     <row r="31" spans="1:44">
       <c r="A31" s="27"/>
-      <c r="B31" s="57"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="28"/>
       <c r="D31" s="29"/>
-      <c r="E31" s="61" t="str">
+      <c r="E31" s="59" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="F31" s="61" t="str">
+      <c r="F31" s="59" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="G31" s="61" t="str">
+      <c r="G31" s="59" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H31" s="61" t="str">
+      <c r="H31" s="59" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I31" s="61" t="str">
+      <c r="I31" s="59" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J31" s="61" t="str">
+      <c r="J31" s="59" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K31" s="66" t="str">
+      <c r="K31" s="64" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L31" s="66" t="str">
+      <c r="L31" s="64" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M31" s="66" t="str">
+      <c r="M31" s="64" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N31" s="66" t="str">
+      <c r="N31" s="64" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O31" s="66" t="str">
+      <c r="O31" s="64" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -5837,11 +5780,11 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q31" s="77"/>
-      <c r="R31" s="78"/>
-      <c r="S31" s="78"/>
-      <c r="T31" s="78"/>
-      <c r="U31" s="78"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="70"/>
+      <c r="S31" s="70"/>
+      <c r="T31" s="70"/>
+      <c r="U31" s="70"/>
       <c r="V31" s="27"/>
       <c r="W31" s="27"/>
       <c r="X31" s="27"/>
@@ -5854,23 +5797,23 @@
       <c r="AE31" s="27"/>
       <c r="AF31" s="27"/>
       <c r="AG31" s="27"/>
-      <c r="AH31" s="80"/>
-      <c r="AI31" s="80"/>
-      <c r="AJ31" s="80"/>
-      <c r="AK31" s="80"/>
-      <c r="AL31" s="80"/>
-      <c r="AM31" s="80"/>
-      <c r="AN31" s="80"/>
-      <c r="AO31" s="80"/>
-      <c r="AP31" s="80"/>
-      <c r="AQ31" s="80"/>
-      <c r="AR31" s="80"/>
+      <c r="AH31" s="57"/>
+      <c r="AI31" s="57"/>
+      <c r="AJ31" s="57"/>
+      <c r="AK31" s="57"/>
+      <c r="AL31" s="57"/>
+      <c r="AM31" s="57"/>
+      <c r="AN31" s="57"/>
+      <c r="AO31" s="57"/>
+      <c r="AP31" s="57"/>
+      <c r="AQ31" s="57"/>
+      <c r="AR31" s="57"/>
     </row>
     <row r="32" spans="1:44">
       <c r="A32" s="52"/>
       <c r="B32" s="53"/>
       <c r="C32" s="54"/>
-      <c r="D32" s="60"/>
+      <c r="D32" s="58"/>
       <c r="E32" s="54" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -5895,23 +5838,23 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K32" s="60" t="str">
+      <c r="K32" s="58" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L32" s="60" t="str">
+      <c r="L32" s="58" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M32" s="60" t="str">
+      <c r="M32" s="58" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N32" s="60" t="str">
+      <c r="N32" s="58" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O32" s="60" t="str">
+      <c r="O32" s="58" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -5919,11 +5862,11 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q32" s="75"/>
-      <c r="R32" s="76"/>
-      <c r="S32" s="76"/>
-      <c r="T32" s="76"/>
-      <c r="U32" s="76"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="72"/>
+      <c r="S32" s="72"/>
+      <c r="T32" s="72"/>
+      <c r="U32" s="72"/>
       <c r="V32" s="53"/>
       <c r="W32" s="53"/>
       <c r="X32" s="53"/>
@@ -5950,50 +5893,50 @@
     </row>
     <row r="33" spans="1:44">
       <c r="A33" s="27"/>
-      <c r="B33" s="57"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="28"/>
       <c r="D33" s="29"/>
-      <c r="E33" s="61" t="str">
+      <c r="E33" s="59" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="F33" s="61" t="str">
+      <c r="F33" s="59" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="G33" s="61" t="str">
+      <c r="G33" s="59" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H33" s="61" t="str">
+      <c r="H33" s="59" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I33" s="61" t="str">
+      <c r="I33" s="59" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J33" s="61" t="str">
+      <c r="J33" s="59" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K33" s="66" t="str">
+      <c r="K33" s="64" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L33" s="66" t="str">
+      <c r="L33" s="64" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M33" s="66" t="str">
+      <c r="M33" s="64" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N33" s="66" t="str">
+      <c r="N33" s="64" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O33" s="66" t="str">
+      <c r="O33" s="64" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -6001,11 +5944,11 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q33" s="77"/>
-      <c r="R33" s="78"/>
-      <c r="S33" s="78"/>
-      <c r="T33" s="78"/>
-      <c r="U33" s="78"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="70"/>
+      <c r="S33" s="70"/>
+      <c r="T33" s="70"/>
+      <c r="U33" s="70"/>
       <c r="V33" s="27"/>
       <c r="W33" s="27"/>
       <c r="X33" s="27"/>
@@ -6018,23 +5961,23 @@
       <c r="AE33" s="27"/>
       <c r="AF33" s="27"/>
       <c r="AG33" s="27"/>
-      <c r="AH33" s="80"/>
-      <c r="AI33" s="80"/>
-      <c r="AJ33" s="80"/>
-      <c r="AK33" s="80"/>
-      <c r="AL33" s="80"/>
-      <c r="AM33" s="80"/>
-      <c r="AN33" s="80"/>
-      <c r="AO33" s="80"/>
-      <c r="AP33" s="80"/>
-      <c r="AQ33" s="80"/>
-      <c r="AR33" s="80"/>
+      <c r="AH33" s="57"/>
+      <c r="AI33" s="57"/>
+      <c r="AJ33" s="57"/>
+      <c r="AK33" s="57"/>
+      <c r="AL33" s="57"/>
+      <c r="AM33" s="57"/>
+      <c r="AN33" s="57"/>
+      <c r="AO33" s="57"/>
+      <c r="AP33" s="57"/>
+      <c r="AQ33" s="57"/>
+      <c r="AR33" s="57"/>
     </row>
     <row r="34" spans="1:44">
       <c r="A34" s="52"/>
       <c r="B34" s="53"/>
       <c r="C34" s="54"/>
-      <c r="D34" s="60"/>
+      <c r="D34" s="58"/>
       <c r="E34" s="54" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -6059,23 +6002,23 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K34" s="60" t="str">
+      <c r="K34" s="58" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L34" s="60" t="str">
+      <c r="L34" s="58" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M34" s="60" t="str">
+      <c r="M34" s="58" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N34" s="60" t="str">
+      <c r="N34" s="58" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O34" s="60" t="str">
+      <c r="O34" s="58" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -6083,11 +6026,11 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="76"/>
-      <c r="S34" s="76"/>
-      <c r="T34" s="76"/>
-      <c r="U34" s="76"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="72"/>
+      <c r="S34" s="72"/>
+      <c r="T34" s="72"/>
+      <c r="U34" s="72"/>
       <c r="V34" s="53"/>
       <c r="W34" s="53"/>
       <c r="X34" s="53"/>
@@ -6114,50 +6057,50 @@
     </row>
     <row r="35" spans="1:44">
       <c r="A35" s="27"/>
-      <c r="B35" s="57"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="28"/>
       <c r="D35" s="29"/>
-      <c r="E35" s="61" t="str">
+      <c r="E35" s="59" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="F35" s="61" t="str">
+      <c r="F35" s="59" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="G35" s="61" t="str">
+      <c r="G35" s="59" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H35" s="61" t="str">
+      <c r="H35" s="59" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I35" s="61" t="str">
+      <c r="I35" s="59" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J35" s="61" t="str">
+      <c r="J35" s="59" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K35" s="66" t="str">
+      <c r="K35" s="64" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L35" s="66" t="str">
+      <c r="L35" s="64" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M35" s="66" t="str">
+      <c r="M35" s="64" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N35" s="66" t="str">
+      <c r="N35" s="64" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O35" s="66" t="str">
+      <c r="O35" s="64" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -6165,11 +6108,11 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q35" s="77"/>
-      <c r="R35" s="78"/>
-      <c r="S35" s="78"/>
-      <c r="T35" s="78"/>
-      <c r="U35" s="78"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="70"/>
+      <c r="S35" s="70"/>
+      <c r="T35" s="70"/>
+      <c r="U35" s="70"/>
       <c r="V35" s="27"/>
       <c r="W35" s="27"/>
       <c r="X35" s="27"/>
@@ -6182,23 +6125,23 @@
       <c r="AE35" s="27"/>
       <c r="AF35" s="27"/>
       <c r="AG35" s="27"/>
-      <c r="AH35" s="80"/>
-      <c r="AI35" s="80"/>
-      <c r="AJ35" s="80"/>
-      <c r="AK35" s="80"/>
-      <c r="AL35" s="80"/>
-      <c r="AM35" s="80"/>
-      <c r="AN35" s="80"/>
-      <c r="AO35" s="80"/>
-      <c r="AP35" s="80"/>
-      <c r="AQ35" s="80"/>
-      <c r="AR35" s="80"/>
+      <c r="AH35" s="57"/>
+      <c r="AI35" s="57"/>
+      <c r="AJ35" s="57"/>
+      <c r="AK35" s="57"/>
+      <c r="AL35" s="57"/>
+      <c r="AM35" s="57"/>
+      <c r="AN35" s="57"/>
+      <c r="AO35" s="57"/>
+      <c r="AP35" s="57"/>
+      <c r="AQ35" s="57"/>
+      <c r="AR35" s="57"/>
     </row>
     <row r="36" spans="1:44">
       <c r="A36" s="52"/>
       <c r="B36" s="53"/>
       <c r="C36" s="54"/>
-      <c r="D36" s="60"/>
+      <c r="D36" s="58"/>
       <c r="E36" s="54" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -6223,23 +6166,23 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K36" s="60" t="str">
+      <c r="K36" s="58" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L36" s="60" t="str">
+      <c r="L36" s="58" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M36" s="60" t="str">
+      <c r="M36" s="58" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N36" s="60" t="str">
+      <c r="N36" s="58" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O36" s="60" t="str">
+      <c r="O36" s="58" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -6247,11 +6190,11 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q36" s="75"/>
-      <c r="R36" s="76"/>
-      <c r="S36" s="76"/>
-      <c r="T36" s="76"/>
-      <c r="U36" s="76"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="72"/>
+      <c r="S36" s="72"/>
+      <c r="T36" s="72"/>
+      <c r="U36" s="72"/>
       <c r="V36" s="53"/>
       <c r="W36" s="53"/>
       <c r="X36" s="53"/>
@@ -6278,50 +6221,50 @@
     </row>
     <row r="37" spans="1:44">
       <c r="A37" s="27"/>
-      <c r="B37" s="57"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="28"/>
       <c r="D37" s="29"/>
-      <c r="E37" s="61" t="str">
+      <c r="E37" s="59" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="F37" s="61" t="str">
+      <c r="F37" s="59" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="G37" s="61" t="str">
+      <c r="G37" s="59" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H37" s="61" t="str">
+      <c r="H37" s="59" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I37" s="61" t="str">
+      <c r="I37" s="59" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J37" s="61" t="str">
+      <c r="J37" s="59" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K37" s="66" t="str">
+      <c r="K37" s="64" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L37" s="66" t="str">
+      <c r="L37" s="64" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M37" s="66" t="str">
+      <c r="M37" s="64" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N37" s="66" t="str">
+      <c r="N37" s="64" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O37" s="66" t="str">
+      <c r="O37" s="64" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -6329,11 +6272,11 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q37" s="77"/>
-      <c r="R37" s="78"/>
-      <c r="S37" s="78"/>
-      <c r="T37" s="78"/>
-      <c r="U37" s="78"/>
+      <c r="Q37" s="73"/>
+      <c r="R37" s="70"/>
+      <c r="S37" s="70"/>
+      <c r="T37" s="70"/>
+      <c r="U37" s="70"/>
       <c r="V37" s="27"/>
       <c r="W37" s="27"/>
       <c r="X37" s="27"/>
@@ -6346,23 +6289,23 @@
       <c r="AE37" s="27"/>
       <c r="AF37" s="27"/>
       <c r="AG37" s="27"/>
-      <c r="AH37" s="80"/>
-      <c r="AI37" s="80"/>
-      <c r="AJ37" s="80"/>
-      <c r="AK37" s="80"/>
-      <c r="AL37" s="80"/>
-      <c r="AM37" s="80"/>
-      <c r="AN37" s="80"/>
-      <c r="AO37" s="80"/>
-      <c r="AP37" s="80"/>
-      <c r="AQ37" s="80"/>
-      <c r="AR37" s="80"/>
+      <c r="AH37" s="57"/>
+      <c r="AI37" s="57"/>
+      <c r="AJ37" s="57"/>
+      <c r="AK37" s="57"/>
+      <c r="AL37" s="57"/>
+      <c r="AM37" s="57"/>
+      <c r="AN37" s="57"/>
+      <c r="AO37" s="57"/>
+      <c r="AP37" s="57"/>
+      <c r="AQ37" s="57"/>
+      <c r="AR37" s="57"/>
     </row>
     <row r="38" spans="1:44">
       <c r="A38" s="52"/>
       <c r="B38" s="53"/>
       <c r="C38" s="54"/>
-      <c r="D38" s="60"/>
+      <c r="D38" s="58"/>
       <c r="E38" s="54" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -6387,23 +6330,23 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K38" s="60" t="str">
+      <c r="K38" s="58" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L38" s="60" t="str">
+      <c r="L38" s="58" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M38" s="60" t="str">
+      <c r="M38" s="58" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N38" s="60" t="str">
+      <c r="N38" s="58" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O38" s="60" t="str">
+      <c r="O38" s="58" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -6411,11 +6354,11 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q38" s="75"/>
-      <c r="R38" s="76"/>
-      <c r="S38" s="76"/>
-      <c r="T38" s="76"/>
-      <c r="U38" s="76"/>
+      <c r="Q38" s="71"/>
+      <c r="R38" s="72"/>
+      <c r="S38" s="72"/>
+      <c r="T38" s="72"/>
+      <c r="U38" s="72"/>
       <c r="V38" s="53"/>
       <c r="W38" s="53"/>
       <c r="X38" s="53"/>
@@ -6442,50 +6385,50 @@
     </row>
     <row r="39" spans="1:44">
       <c r="A39" s="27"/>
-      <c r="B39" s="57"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="28"/>
       <c r="D39" s="29"/>
-      <c r="E39" s="61" t="str">
+      <c r="E39" s="59" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="F39" s="61" t="str">
+      <c r="F39" s="59" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="G39" s="61" t="str">
+      <c r="G39" s="59" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H39" s="61" t="str">
+      <c r="H39" s="59" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I39" s="61" t="str">
+      <c r="I39" s="59" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J39" s="61" t="str">
+      <c r="J39" s="59" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K39" s="66" t="str">
+      <c r="K39" s="64" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L39" s="66" t="str">
+      <c r="L39" s="64" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M39" s="66" t="str">
+      <c r="M39" s="64" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N39" s="66" t="str">
+      <c r="N39" s="64" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O39" s="66" t="str">
+      <c r="O39" s="64" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -6493,11 +6436,11 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q39" s="77"/>
-      <c r="R39" s="78"/>
-      <c r="S39" s="78"/>
-      <c r="T39" s="78"/>
-      <c r="U39" s="78"/>
+      <c r="Q39" s="73"/>
+      <c r="R39" s="70"/>
+      <c r="S39" s="70"/>
+      <c r="T39" s="70"/>
+      <c r="U39" s="70"/>
       <c r="V39" s="27"/>
       <c r="W39" s="27"/>
       <c r="X39" s="27"/>
@@ -6510,23 +6453,23 @@
       <c r="AE39" s="27"/>
       <c r="AF39" s="27"/>
       <c r="AG39" s="27"/>
-      <c r="AH39" s="80"/>
-      <c r="AI39" s="80"/>
-      <c r="AJ39" s="80"/>
-      <c r="AK39" s="80"/>
-      <c r="AL39" s="80"/>
-      <c r="AM39" s="80"/>
-      <c r="AN39" s="80"/>
-      <c r="AO39" s="80"/>
-      <c r="AP39" s="80"/>
-      <c r="AQ39" s="80"/>
-      <c r="AR39" s="80"/>
+      <c r="AH39" s="57"/>
+      <c r="AI39" s="57"/>
+      <c r="AJ39" s="57"/>
+      <c r="AK39" s="57"/>
+      <c r="AL39" s="57"/>
+      <c r="AM39" s="57"/>
+      <c r="AN39" s="57"/>
+      <c r="AO39" s="57"/>
+      <c r="AP39" s="57"/>
+      <c r="AQ39" s="57"/>
+      <c r="AR39" s="57"/>
     </row>
     <row r="40" spans="1:44">
       <c r="A40" s="52"/>
       <c r="B40" s="53"/>
       <c r="C40" s="54"/>
-      <c r="D40" s="60"/>
+      <c r="D40" s="58"/>
       <c r="E40" s="54" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -6551,23 +6494,23 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K40" s="60" t="str">
+      <c r="K40" s="58" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L40" s="60" t="str">
+      <c r="L40" s="58" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M40" s="60" t="str">
+      <c r="M40" s="58" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N40" s="60" t="str">
+      <c r="N40" s="58" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O40" s="60" t="str">
+      <c r="O40" s="58" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -6575,11 +6518,11 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q40" s="75"/>
-      <c r="R40" s="76"/>
-      <c r="S40" s="76"/>
-      <c r="T40" s="76"/>
-      <c r="U40" s="76"/>
+      <c r="Q40" s="71"/>
+      <c r="R40" s="72"/>
+      <c r="S40" s="72"/>
+      <c r="T40" s="72"/>
+      <c r="U40" s="72"/>
       <c r="V40" s="53"/>
       <c r="W40" s="53"/>
       <c r="X40" s="53"/>
@@ -6606,50 +6549,50 @@
     </row>
     <row r="41" spans="1:44">
       <c r="A41" s="27"/>
-      <c r="B41" s="57"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="28"/>
       <c r="D41" s="29"/>
-      <c r="E41" s="61" t="str">
+      <c r="E41" s="59" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="F41" s="61" t="str">
+      <c r="F41" s="59" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="G41" s="61" t="str">
+      <c r="G41" s="59" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H41" s="61" t="str">
+      <c r="H41" s="59" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I41" s="61" t="str">
+      <c r="I41" s="59" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J41" s="61" t="str">
+      <c r="J41" s="59" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K41" s="66" t="str">
+      <c r="K41" s="64" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L41" s="66" t="str">
+      <c r="L41" s="64" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M41" s="66" t="str">
+      <c r="M41" s="64" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N41" s="66" t="str">
+      <c r="N41" s="64" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O41" s="66" t="str">
+      <c r="O41" s="64" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -6657,11 +6600,11 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q41" s="77"/>
-      <c r="R41" s="78"/>
-      <c r="S41" s="78"/>
-      <c r="T41" s="78"/>
-      <c r="U41" s="78"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="70"/>
+      <c r="S41" s="70"/>
+      <c r="T41" s="70"/>
+      <c r="U41" s="70"/>
       <c r="V41" s="27"/>
       <c r="W41" s="27"/>
       <c r="X41" s="27"/>
@@ -6674,23 +6617,23 @@
       <c r="AE41" s="27"/>
       <c r="AF41" s="27"/>
       <c r="AG41" s="27"/>
-      <c r="AH41" s="80"/>
-      <c r="AI41" s="80"/>
-      <c r="AJ41" s="80"/>
-      <c r="AK41" s="80"/>
-      <c r="AL41" s="80"/>
-      <c r="AM41" s="80"/>
-      <c r="AN41" s="80"/>
-      <c r="AO41" s="80"/>
-      <c r="AP41" s="80"/>
-      <c r="AQ41" s="80"/>
-      <c r="AR41" s="80"/>
+      <c r="AH41" s="57"/>
+      <c r="AI41" s="57"/>
+      <c r="AJ41" s="57"/>
+      <c r="AK41" s="57"/>
+      <c r="AL41" s="57"/>
+      <c r="AM41" s="57"/>
+      <c r="AN41" s="57"/>
+      <c r="AO41" s="57"/>
+      <c r="AP41" s="57"/>
+      <c r="AQ41" s="57"/>
+      <c r="AR41" s="57"/>
     </row>
     <row r="42" spans="1:44">
       <c r="A42" s="52"/>
       <c r="B42" s="53"/>
       <c r="C42" s="54"/>
-      <c r="D42" s="60"/>
+      <c r="D42" s="58"/>
       <c r="E42" s="54" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -6715,23 +6658,23 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K42" s="60" t="str">
+      <c r="K42" s="58" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L42" s="60" t="str">
+      <c r="L42" s="58" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M42" s="60" t="str">
+      <c r="M42" s="58" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N42" s="60" t="str">
+      <c r="N42" s="58" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O42" s="60" t="str">
+      <c r="O42" s="58" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -6739,11 +6682,11 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q42" s="75"/>
-      <c r="R42" s="76"/>
-      <c r="S42" s="76"/>
-      <c r="T42" s="76"/>
-      <c r="U42" s="76"/>
+      <c r="Q42" s="71"/>
+      <c r="R42" s="72"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
       <c r="V42" s="53"/>
       <c r="W42" s="53"/>
       <c r="X42" s="53"/>
@@ -6770,50 +6713,50 @@
     </row>
     <row r="43" spans="1:44">
       <c r="A43" s="27"/>
-      <c r="B43" s="57"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="28"/>
       <c r="D43" s="29"/>
-      <c r="E43" s="61" t="str">
+      <c r="E43" s="59" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="F43" s="61" t="str">
+      <c r="F43" s="59" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="G43" s="61" t="str">
+      <c r="G43" s="59" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H43" s="61" t="str">
+      <c r="H43" s="59" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I43" s="61" t="str">
+      <c r="I43" s="59" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J43" s="61" t="str">
+      <c r="J43" s="59" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K43" s="66" t="str">
+      <c r="K43" s="64" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L43" s="66" t="str">
+      <c r="L43" s="64" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M43" s="66" t="str">
+      <c r="M43" s="64" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N43" s="66" t="str">
+      <c r="N43" s="64" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O43" s="66" t="str">
+      <c r="O43" s="64" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -6821,11 +6764,11 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q43" s="77"/>
-      <c r="R43" s="78"/>
-      <c r="S43" s="78"/>
-      <c r="T43" s="78"/>
-      <c r="U43" s="78"/>
+      <c r="Q43" s="73"/>
+      <c r="R43" s="70"/>
+      <c r="S43" s="70"/>
+      <c r="T43" s="70"/>
+      <c r="U43" s="70"/>
       <c r="V43" s="27"/>
       <c r="W43" s="27"/>
       <c r="X43" s="27"/>
@@ -6838,23 +6781,23 @@
       <c r="AE43" s="27"/>
       <c r="AF43" s="27"/>
       <c r="AG43" s="27"/>
-      <c r="AH43" s="80"/>
-      <c r="AI43" s="80"/>
-      <c r="AJ43" s="80"/>
-      <c r="AK43" s="80"/>
-      <c r="AL43" s="80"/>
-      <c r="AM43" s="80"/>
-      <c r="AN43" s="80"/>
-      <c r="AO43" s="80"/>
-      <c r="AP43" s="80"/>
-      <c r="AQ43" s="80"/>
-      <c r="AR43" s="80"/>
+      <c r="AH43" s="57"/>
+      <c r="AI43" s="57"/>
+      <c r="AJ43" s="57"/>
+      <c r="AK43" s="57"/>
+      <c r="AL43" s="57"/>
+      <c r="AM43" s="57"/>
+      <c r="AN43" s="57"/>
+      <c r="AO43" s="57"/>
+      <c r="AP43" s="57"/>
+      <c r="AQ43" s="57"/>
+      <c r="AR43" s="57"/>
     </row>
     <row r="44" spans="1:44">
       <c r="A44" s="52"/>
       <c r="B44" s="53"/>
       <c r="C44" s="54"/>
-      <c r="D44" s="60"/>
+      <c r="D44" s="58"/>
       <c r="E44" s="54" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -6879,23 +6822,23 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K44" s="60" t="str">
+      <c r="K44" s="58" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L44" s="60" t="str">
+      <c r="L44" s="58" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M44" s="60" t="str">
+      <c r="M44" s="58" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N44" s="60" t="str">
+      <c r="N44" s="58" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O44" s="60" t="str">
+      <c r="O44" s="58" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -6903,11 +6846,11 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q44" s="75"/>
-      <c r="R44" s="76"/>
-      <c r="S44" s="76"/>
-      <c r="T44" s="76"/>
-      <c r="U44" s="76"/>
+      <c r="Q44" s="71"/>
+      <c r="R44" s="72"/>
+      <c r="S44" s="72"/>
+      <c r="T44" s="72"/>
+      <c r="U44" s="72"/>
       <c r="V44" s="53"/>
       <c r="W44" s="53"/>
       <c r="X44" s="53"/>
@@ -6934,50 +6877,50 @@
     </row>
     <row r="45" spans="1:44">
       <c r="A45" s="27"/>
-      <c r="B45" s="57"/>
+      <c r="B45" s="55"/>
       <c r="C45" s="28"/>
       <c r="D45" s="29"/>
-      <c r="E45" s="61" t="str">
+      <c r="E45" s="59" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="F45" s="61" t="str">
+      <c r="F45" s="59" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="G45" s="61" t="str">
+      <c r="G45" s="59" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H45" s="61" t="str">
+      <c r="H45" s="59" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I45" s="61" t="str">
+      <c r="I45" s="59" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J45" s="61" t="str">
+      <c r="J45" s="59" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K45" s="66" t="str">
+      <c r="K45" s="64" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L45" s="66" t="str">
+      <c r="L45" s="64" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M45" s="66" t="str">
+      <c r="M45" s="64" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N45" s="66" t="str">
+      <c r="N45" s="64" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O45" s="66" t="str">
+      <c r="O45" s="64" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -6985,11 +6928,11 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q45" s="77"/>
-      <c r="R45" s="78"/>
-      <c r="S45" s="78"/>
-      <c r="T45" s="78"/>
-      <c r="U45" s="78"/>
+      <c r="Q45" s="73"/>
+      <c r="R45" s="70"/>
+      <c r="S45" s="70"/>
+      <c r="T45" s="70"/>
+      <c r="U45" s="70"/>
       <c r="V45" s="27"/>
       <c r="W45" s="27"/>
       <c r="X45" s="27"/>
@@ -7002,23 +6945,23 @@
       <c r="AE45" s="27"/>
       <c r="AF45" s="27"/>
       <c r="AG45" s="27"/>
-      <c r="AH45" s="80"/>
-      <c r="AI45" s="80"/>
-      <c r="AJ45" s="80"/>
-      <c r="AK45" s="80"/>
-      <c r="AL45" s="80"/>
-      <c r="AM45" s="80"/>
-      <c r="AN45" s="80"/>
-      <c r="AO45" s="80"/>
-      <c r="AP45" s="80"/>
-      <c r="AQ45" s="80"/>
-      <c r="AR45" s="80"/>
+      <c r="AH45" s="57"/>
+      <c r="AI45" s="57"/>
+      <c r="AJ45" s="57"/>
+      <c r="AK45" s="57"/>
+      <c r="AL45" s="57"/>
+      <c r="AM45" s="57"/>
+      <c r="AN45" s="57"/>
+      <c r="AO45" s="57"/>
+      <c r="AP45" s="57"/>
+      <c r="AQ45" s="57"/>
+      <c r="AR45" s="57"/>
     </row>
     <row r="46" spans="1:44">
       <c r="A46" s="52"/>
       <c r="B46" s="53"/>
       <c r="C46" s="54"/>
-      <c r="D46" s="60"/>
+      <c r="D46" s="58"/>
       <c r="E46" s="54" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -7043,23 +6986,23 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K46" s="60" t="str">
+      <c r="K46" s="58" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L46" s="60" t="str">
+      <c r="L46" s="58" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M46" s="60" t="str">
+      <c r="M46" s="58" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N46" s="60" t="str">
+      <c r="N46" s="58" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O46" s="60" t="str">
+      <c r="O46" s="58" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -7067,11 +7010,11 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q46" s="75"/>
-      <c r="R46" s="76"/>
-      <c r="S46" s="76"/>
-      <c r="T46" s="76"/>
-      <c r="U46" s="76"/>
+      <c r="Q46" s="71"/>
+      <c r="R46" s="72"/>
+      <c r="S46" s="72"/>
+      <c r="T46" s="72"/>
+      <c r="U46" s="72"/>
       <c r="V46" s="53"/>
       <c r="W46" s="53"/>
       <c r="X46" s="53"/>
@@ -7098,50 +7041,50 @@
     </row>
     <row r="47" spans="1:44">
       <c r="A47" s="27"/>
-      <c r="B47" s="57"/>
+      <c r="B47" s="55"/>
       <c r="C47" s="28"/>
       <c r="D47" s="29"/>
-      <c r="E47" s="61" t="str">
+      <c r="E47" s="59" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="F47" s="61" t="str">
+      <c r="F47" s="59" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="G47" s="61" t="str">
+      <c r="G47" s="59" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H47" s="61" t="str">
+      <c r="H47" s="59" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I47" s="61" t="str">
+      <c r="I47" s="59" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J47" s="61" t="str">
+      <c r="J47" s="59" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K47" s="66" t="str">
+      <c r="K47" s="64" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L47" s="66" t="str">
+      <c r="L47" s="64" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M47" s="66" t="str">
+      <c r="M47" s="64" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N47" s="66" t="str">
+      <c r="N47" s="64" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O47" s="66" t="str">
+      <c r="O47" s="64" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -7149,11 +7092,11 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q47" s="77"/>
-      <c r="R47" s="78"/>
-      <c r="S47" s="78"/>
-      <c r="T47" s="78"/>
-      <c r="U47" s="78"/>
+      <c r="Q47" s="73"/>
+      <c r="R47" s="70"/>
+      <c r="S47" s="70"/>
+      <c r="T47" s="70"/>
+      <c r="U47" s="70"/>
       <c r="V47" s="27"/>
       <c r="W47" s="27"/>
       <c r="X47" s="27"/>
@@ -7166,23 +7109,23 @@
       <c r="AE47" s="27"/>
       <c r="AF47" s="27"/>
       <c r="AG47" s="27"/>
-      <c r="AH47" s="80"/>
-      <c r="AI47" s="80"/>
-      <c r="AJ47" s="80"/>
-      <c r="AK47" s="80"/>
-      <c r="AL47" s="80"/>
-      <c r="AM47" s="80"/>
-      <c r="AN47" s="80"/>
-      <c r="AO47" s="80"/>
-      <c r="AP47" s="80"/>
-      <c r="AQ47" s="80"/>
-      <c r="AR47" s="80"/>
+      <c r="AH47" s="57"/>
+      <c r="AI47" s="57"/>
+      <c r="AJ47" s="57"/>
+      <c r="AK47" s="57"/>
+      <c r="AL47" s="57"/>
+      <c r="AM47" s="57"/>
+      <c r="AN47" s="57"/>
+      <c r="AO47" s="57"/>
+      <c r="AP47" s="57"/>
+      <c r="AQ47" s="57"/>
+      <c r="AR47" s="57"/>
     </row>
     <row r="48" spans="1:44">
       <c r="A48" s="52"/>
       <c r="B48" s="53"/>
       <c r="C48" s="54"/>
-      <c r="D48" s="60"/>
+      <c r="D48" s="58"/>
       <c r="E48" s="54" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -7207,23 +7150,23 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K48" s="60" t="str">
+      <c r="K48" s="58" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L48" s="60" t="str">
+      <c r="L48" s="58" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M48" s="60" t="str">
+      <c r="M48" s="58" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N48" s="60" t="str">
+      <c r="N48" s="58" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O48" s="60" t="str">
+      <c r="O48" s="58" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -7231,11 +7174,11 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q48" s="75"/>
-      <c r="R48" s="76"/>
-      <c r="S48" s="76"/>
-      <c r="T48" s="76"/>
-      <c r="U48" s="76"/>
+      <c r="Q48" s="71"/>
+      <c r="R48" s="72"/>
+      <c r="S48" s="72"/>
+      <c r="T48" s="72"/>
+      <c r="U48" s="72"/>
       <c r="V48" s="53"/>
       <c r="W48" s="53"/>
       <c r="X48" s="53"/>
@@ -7262,50 +7205,50 @@
     </row>
     <row r="49" spans="1:44">
       <c r="A49" s="27"/>
-      <c r="B49" s="57"/>
+      <c r="B49" s="55"/>
       <c r="C49" s="28"/>
       <c r="D49" s="29"/>
-      <c r="E49" s="61" t="str">
+      <c r="E49" s="59" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="F49" s="61" t="str">
+      <c r="F49" s="59" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="G49" s="61" t="str">
+      <c r="G49" s="59" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H49" s="61" t="str">
+      <c r="H49" s="59" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I49" s="61" t="str">
+      <c r="I49" s="59" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J49" s="61" t="str">
+      <c r="J49" s="59" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K49" s="66" t="str">
+      <c r="K49" s="64" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L49" s="66" t="str">
+      <c r="L49" s="64" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M49" s="66" t="str">
+      <c r="M49" s="64" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N49" s="66" t="str">
+      <c r="N49" s="64" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O49" s="66" t="str">
+      <c r="O49" s="64" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -7313,11 +7256,11 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q49" s="77"/>
-      <c r="R49" s="78"/>
-      <c r="S49" s="78"/>
-      <c r="T49" s="78"/>
-      <c r="U49" s="78"/>
+      <c r="Q49" s="73"/>
+      <c r="R49" s="70"/>
+      <c r="S49" s="70"/>
+      <c r="T49" s="70"/>
+      <c r="U49" s="70"/>
       <c r="V49" s="27"/>
       <c r="W49" s="27"/>
       <c r="X49" s="27"/>
@@ -7330,23 +7273,23 @@
       <c r="AE49" s="27"/>
       <c r="AF49" s="27"/>
       <c r="AG49" s="27"/>
-      <c r="AH49" s="80"/>
-      <c r="AI49" s="80"/>
-      <c r="AJ49" s="80"/>
-      <c r="AK49" s="80"/>
-      <c r="AL49" s="80"/>
-      <c r="AM49" s="80"/>
-      <c r="AN49" s="80"/>
-      <c r="AO49" s="80"/>
-      <c r="AP49" s="80"/>
-      <c r="AQ49" s="80"/>
-      <c r="AR49" s="80"/>
+      <c r="AH49" s="57"/>
+      <c r="AI49" s="57"/>
+      <c r="AJ49" s="57"/>
+      <c r="AK49" s="57"/>
+      <c r="AL49" s="57"/>
+      <c r="AM49" s="57"/>
+      <c r="AN49" s="57"/>
+      <c r="AO49" s="57"/>
+      <c r="AP49" s="57"/>
+      <c r="AQ49" s="57"/>
+      <c r="AR49" s="57"/>
     </row>
     <row r="50" spans="1:44">
       <c r="A50" s="52"/>
       <c r="B50" s="53"/>
       <c r="C50" s="54"/>
-      <c r="D50" s="60"/>
+      <c r="D50" s="58"/>
       <c r="E50" s="54" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -7371,23 +7314,23 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K50" s="60" t="str">
+      <c r="K50" s="58" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L50" s="60" t="str">
+      <c r="L50" s="58" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M50" s="60" t="str">
+      <c r="M50" s="58" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N50" s="60" t="str">
+      <c r="N50" s="58" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O50" s="60" t="str">
+      <c r="O50" s="58" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -7395,11 +7338,11 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q50" s="75"/>
-      <c r="R50" s="76"/>
-      <c r="S50" s="76"/>
-      <c r="T50" s="76"/>
-      <c r="U50" s="76"/>
+      <c r="Q50" s="71"/>
+      <c r="R50" s="72"/>
+      <c r="S50" s="72"/>
+      <c r="T50" s="72"/>
+      <c r="U50" s="72"/>
       <c r="V50" s="53"/>
       <c r="W50" s="53"/>
       <c r="X50" s="53"/>
@@ -7426,50 +7369,50 @@
     </row>
     <row r="51" spans="1:44">
       <c r="A51" s="27"/>
-      <c r="B51" s="57"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="28"/>
       <c r="D51" s="29"/>
-      <c r="E51" s="61" t="str">
+      <c r="E51" s="59" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="F51" s="61" t="str">
+      <c r="F51" s="59" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="G51" s="61" t="str">
+      <c r="G51" s="59" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H51" s="61" t="str">
+      <c r="H51" s="59" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I51" s="61" t="str">
+      <c r="I51" s="59" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J51" s="61" t="str">
+      <c r="J51" s="59" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K51" s="66" t="str">
+      <c r="K51" s="64" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L51" s="66" t="str">
+      <c r="L51" s="64" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M51" s="66" t="str">
+      <c r="M51" s="64" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N51" s="66" t="str">
+      <c r="N51" s="64" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O51" s="66" t="str">
+      <c r="O51" s="64" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -7477,11 +7420,11 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q51" s="77"/>
-      <c r="R51" s="78"/>
-      <c r="S51" s="78"/>
-      <c r="T51" s="78"/>
-      <c r="U51" s="78"/>
+      <c r="Q51" s="73"/>
+      <c r="R51" s="70"/>
+      <c r="S51" s="70"/>
+      <c r="T51" s="70"/>
+      <c r="U51" s="70"/>
       <c r="V51" s="27"/>
       <c r="W51" s="27"/>
       <c r="X51" s="27"/>
@@ -7494,23 +7437,23 @@
       <c r="AE51" s="27"/>
       <c r="AF51" s="27"/>
       <c r="AG51" s="27"/>
-      <c r="AH51" s="80"/>
-      <c r="AI51" s="80"/>
-      <c r="AJ51" s="80"/>
-      <c r="AK51" s="80"/>
-      <c r="AL51" s="80"/>
-      <c r="AM51" s="80"/>
-      <c r="AN51" s="80"/>
-      <c r="AO51" s="80"/>
-      <c r="AP51" s="80"/>
-      <c r="AQ51" s="80"/>
-      <c r="AR51" s="80"/>
+      <c r="AH51" s="57"/>
+      <c r="AI51" s="57"/>
+      <c r="AJ51" s="57"/>
+      <c r="AK51" s="57"/>
+      <c r="AL51" s="57"/>
+      <c r="AM51" s="57"/>
+      <c r="AN51" s="57"/>
+      <c r="AO51" s="57"/>
+      <c r="AP51" s="57"/>
+      <c r="AQ51" s="57"/>
+      <c r="AR51" s="57"/>
     </row>
     <row r="52" spans="1:44">
       <c r="A52" s="52"/>
       <c r="B52" s="53"/>
       <c r="C52" s="54"/>
-      <c r="D52" s="60"/>
+      <c r="D52" s="58"/>
       <c r="E52" s="54" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -7535,23 +7478,23 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K52" s="60" t="str">
+      <c r="K52" s="58" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L52" s="60" t="str">
+      <c r="L52" s="58" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M52" s="60" t="str">
+      <c r="M52" s="58" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N52" s="60" t="str">
+      <c r="N52" s="58" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O52" s="60" t="str">
+      <c r="O52" s="58" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -7559,11 +7502,11 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q52" s="75"/>
-      <c r="R52" s="76"/>
-      <c r="S52" s="76"/>
-      <c r="T52" s="76"/>
-      <c r="U52" s="76"/>
+      <c r="Q52" s="71"/>
+      <c r="R52" s="72"/>
+      <c r="S52" s="72"/>
+      <c r="T52" s="72"/>
+      <c r="U52" s="72"/>
       <c r="V52" s="53"/>
       <c r="W52" s="53"/>
       <c r="X52" s="53"/>
@@ -7590,50 +7533,50 @@
     </row>
     <row r="53" spans="1:44">
       <c r="A53" s="27"/>
-      <c r="B53" s="57"/>
+      <c r="B53" s="55"/>
       <c r="C53" s="28"/>
       <c r="D53" s="29"/>
-      <c r="E53" s="61" t="str">
+      <c r="E53" s="59" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="F53" s="61" t="str">
+      <c r="F53" s="59" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="G53" s="61" t="str">
+      <c r="G53" s="59" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H53" s="61" t="str">
+      <c r="H53" s="59" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I53" s="61" t="str">
+      <c r="I53" s="59" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J53" s="61" t="str">
+      <c r="J53" s="59" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K53" s="66" t="str">
+      <c r="K53" s="64" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L53" s="66" t="str">
+      <c r="L53" s="64" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M53" s="66" t="str">
+      <c r="M53" s="64" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N53" s="66" t="str">
+      <c r="N53" s="64" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O53" s="66" t="str">
+      <c r="O53" s="64" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -7641,11 +7584,11 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q53" s="77"/>
-      <c r="R53" s="78"/>
-      <c r="S53" s="78"/>
-      <c r="T53" s="78"/>
-      <c r="U53" s="78"/>
+      <c r="Q53" s="73"/>
+      <c r="R53" s="70"/>
+      <c r="S53" s="70"/>
+      <c r="T53" s="70"/>
+      <c r="U53" s="70"/>
       <c r="V53" s="27"/>
       <c r="W53" s="27"/>
       <c r="X53" s="27"/>
@@ -7658,23 +7601,23 @@
       <c r="AE53" s="27"/>
       <c r="AF53" s="27"/>
       <c r="AG53" s="27"/>
-      <c r="AH53" s="80"/>
-      <c r="AI53" s="80"/>
-      <c r="AJ53" s="80"/>
-      <c r="AK53" s="80"/>
-      <c r="AL53" s="80"/>
-      <c r="AM53" s="80"/>
-      <c r="AN53" s="80"/>
-      <c r="AO53" s="80"/>
-      <c r="AP53" s="80"/>
-      <c r="AQ53" s="80"/>
-      <c r="AR53" s="80"/>
+      <c r="AH53" s="57"/>
+      <c r="AI53" s="57"/>
+      <c r="AJ53" s="57"/>
+      <c r="AK53" s="57"/>
+      <c r="AL53" s="57"/>
+      <c r="AM53" s="57"/>
+      <c r="AN53" s="57"/>
+      <c r="AO53" s="57"/>
+      <c r="AP53" s="57"/>
+      <c r="AQ53" s="57"/>
+      <c r="AR53" s="57"/>
     </row>
     <row r="54" spans="1:44">
       <c r="A54" s="52"/>
       <c r="B54" s="53"/>
       <c r="C54" s="54"/>
-      <c r="D54" s="60"/>
+      <c r="D54" s="58"/>
       <c r="E54" s="54" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -7699,23 +7642,23 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K54" s="60" t="str">
+      <c r="K54" s="58" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L54" s="60" t="str">
+      <c r="L54" s="58" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M54" s="60" t="str">
+      <c r="M54" s="58" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N54" s="60" t="str">
+      <c r="N54" s="58" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O54" s="60" t="str">
+      <c r="O54" s="58" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -7723,11 +7666,11 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q54" s="75"/>
-      <c r="R54" s="76"/>
-      <c r="S54" s="76"/>
-      <c r="T54" s="76"/>
-      <c r="U54" s="76"/>
+      <c r="Q54" s="71"/>
+      <c r="R54" s="72"/>
+      <c r="S54" s="72"/>
+      <c r="T54" s="72"/>
+      <c r="U54" s="72"/>
       <c r="V54" s="53"/>
       <c r="W54" s="53"/>
       <c r="X54" s="53"/>
@@ -7754,50 +7697,50 @@
     </row>
     <row r="55" spans="1:44">
       <c r="A55" s="27"/>
-      <c r="B55" s="57"/>
+      <c r="B55" s="55"/>
       <c r="C55" s="28"/>
       <c r="D55" s="29"/>
-      <c r="E55" s="61" t="str">
+      <c r="E55" s="59" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="F55" s="61" t="str">
+      <c r="F55" s="59" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="G55" s="61" t="str">
+      <c r="G55" s="59" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H55" s="61" t="str">
+      <c r="H55" s="59" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I55" s="61" t="str">
+      <c r="I55" s="59" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J55" s="61" t="str">
+      <c r="J55" s="59" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K55" s="66" t="str">
+      <c r="K55" s="64" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L55" s="66" t="str">
+      <c r="L55" s="64" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M55" s="66" t="str">
+      <c r="M55" s="64" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N55" s="66" t="str">
+      <c r="N55" s="64" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O55" s="66" t="str">
+      <c r="O55" s="64" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -7805,11 +7748,11 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q55" s="77"/>
-      <c r="R55" s="78"/>
-      <c r="S55" s="78"/>
-      <c r="T55" s="78"/>
-      <c r="U55" s="78"/>
+      <c r="Q55" s="73"/>
+      <c r="R55" s="70"/>
+      <c r="S55" s="70"/>
+      <c r="T55" s="70"/>
+      <c r="U55" s="70"/>
       <c r="V55" s="27"/>
       <c r="W55" s="27"/>
       <c r="X55" s="27"/>
@@ -7822,23 +7765,23 @@
       <c r="AE55" s="27"/>
       <c r="AF55" s="27"/>
       <c r="AG55" s="27"/>
-      <c r="AH55" s="80"/>
-      <c r="AI55" s="80"/>
-      <c r="AJ55" s="80"/>
-      <c r="AK55" s="80"/>
-      <c r="AL55" s="80"/>
-      <c r="AM55" s="80"/>
-      <c r="AN55" s="80"/>
-      <c r="AO55" s="80"/>
-      <c r="AP55" s="80"/>
-      <c r="AQ55" s="80"/>
-      <c r="AR55" s="80"/>
+      <c r="AH55" s="57"/>
+      <c r="AI55" s="57"/>
+      <c r="AJ55" s="57"/>
+      <c r="AK55" s="57"/>
+      <c r="AL55" s="57"/>
+      <c r="AM55" s="57"/>
+      <c r="AN55" s="57"/>
+      <c r="AO55" s="57"/>
+      <c r="AP55" s="57"/>
+      <c r="AQ55" s="57"/>
+      <c r="AR55" s="57"/>
     </row>
     <row r="56" spans="1:44">
       <c r="A56" s="52"/>
       <c r="B56" s="53"/>
       <c r="C56" s="54"/>
-      <c r="D56" s="60"/>
+      <c r="D56" s="58"/>
       <c r="E56" s="54" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -7863,23 +7806,23 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K56" s="60" t="str">
+      <c r="K56" s="58" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L56" s="60" t="str">
+      <c r="L56" s="58" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M56" s="60" t="str">
+      <c r="M56" s="58" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N56" s="60" t="str">
+      <c r="N56" s="58" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O56" s="60" t="str">
+      <c r="O56" s="58" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -7887,11 +7830,11 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q56" s="75"/>
-      <c r="R56" s="76"/>
-      <c r="S56" s="76"/>
-      <c r="T56" s="76"/>
-      <c r="U56" s="76"/>
+      <c r="Q56" s="71"/>
+      <c r="R56" s="72"/>
+      <c r="S56" s="72"/>
+      <c r="T56" s="72"/>
+      <c r="U56" s="72"/>
       <c r="V56" s="53"/>
       <c r="W56" s="53"/>
       <c r="X56" s="53"/>
@@ -7918,50 +7861,50 @@
     </row>
     <row r="57" spans="1:44">
       <c r="A57" s="27"/>
-      <c r="B57" s="57"/>
+      <c r="B57" s="55"/>
       <c r="C57" s="28"/>
       <c r="D57" s="29"/>
-      <c r="E57" s="61" t="str">
+      <c r="E57" s="59" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="F57" s="61" t="str">
+      <c r="F57" s="59" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="G57" s="61" t="str">
+      <c r="G57" s="59" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H57" s="61" t="str">
+      <c r="H57" s="59" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I57" s="61" t="str">
+      <c r="I57" s="59" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J57" s="61" t="str">
+      <c r="J57" s="59" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K57" s="66" t="str">
+      <c r="K57" s="64" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L57" s="66" t="str">
+      <c r="L57" s="64" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M57" s="66" t="str">
+      <c r="M57" s="64" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N57" s="66" t="str">
+      <c r="N57" s="64" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O57" s="66" t="str">
+      <c r="O57" s="64" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -7969,11 +7912,11 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q57" s="77"/>
-      <c r="R57" s="78"/>
-      <c r="S57" s="78"/>
-      <c r="T57" s="78"/>
-      <c r="U57" s="78"/>
+      <c r="Q57" s="73"/>
+      <c r="R57" s="70"/>
+      <c r="S57" s="70"/>
+      <c r="T57" s="70"/>
+      <c r="U57" s="70"/>
       <c r="V57" s="27"/>
       <c r="W57" s="27"/>
       <c r="X57" s="27"/>
@@ -7986,23 +7929,23 @@
       <c r="AE57" s="27"/>
       <c r="AF57" s="27"/>
       <c r="AG57" s="27"/>
-      <c r="AH57" s="80"/>
-      <c r="AI57" s="80"/>
-      <c r="AJ57" s="80"/>
-      <c r="AK57" s="80"/>
-      <c r="AL57" s="80"/>
-      <c r="AM57" s="80"/>
-      <c r="AN57" s="80"/>
-      <c r="AO57" s="80"/>
-      <c r="AP57" s="80"/>
-      <c r="AQ57" s="80"/>
-      <c r="AR57" s="80"/>
+      <c r="AH57" s="57"/>
+      <c r="AI57" s="57"/>
+      <c r="AJ57" s="57"/>
+      <c r="AK57" s="57"/>
+      <c r="AL57" s="57"/>
+      <c r="AM57" s="57"/>
+      <c r="AN57" s="57"/>
+      <c r="AO57" s="57"/>
+      <c r="AP57" s="57"/>
+      <c r="AQ57" s="57"/>
+      <c r="AR57" s="57"/>
     </row>
     <row r="58" spans="1:44">
       <c r="A58" s="52"/>
       <c r="B58" s="53"/>
       <c r="C58" s="54"/>
-      <c r="D58" s="60"/>
+      <c r="D58" s="58"/>
       <c r="E58" s="54" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -8027,23 +7970,23 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K58" s="60" t="str">
+      <c r="K58" s="58" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L58" s="60" t="str">
+      <c r="L58" s="58" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M58" s="60" t="str">
+      <c r="M58" s="58" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N58" s="60" t="str">
+      <c r="N58" s="58" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O58" s="60" t="str">
+      <c r="O58" s="58" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -8051,11 +7994,11 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q58" s="75"/>
-      <c r="R58" s="76"/>
-      <c r="S58" s="76"/>
-      <c r="T58" s="76"/>
-      <c r="U58" s="76"/>
+      <c r="Q58" s="71"/>
+      <c r="R58" s="72"/>
+      <c r="S58" s="72"/>
+      <c r="T58" s="72"/>
+      <c r="U58" s="72"/>
       <c r="V58" s="53"/>
       <c r="W58" s="53"/>
       <c r="X58" s="53"/>
@@ -8082,50 +8025,50 @@
     </row>
     <row r="59" spans="1:44">
       <c r="A59" s="27"/>
-      <c r="B59" s="57"/>
+      <c r="B59" s="55"/>
       <c r="C59" s="28"/>
       <c r="D59" s="29"/>
-      <c r="E59" s="61" t="str">
+      <c r="E59" s="59" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="F59" s="61" t="str">
+      <c r="F59" s="59" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="G59" s="61" t="str">
+      <c r="G59" s="59" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H59" s="61" t="str">
+      <c r="H59" s="59" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I59" s="61" t="str">
+      <c r="I59" s="59" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J59" s="61" t="str">
+      <c r="J59" s="59" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K59" s="66" t="str">
+      <c r="K59" s="64" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L59" s="66" t="str">
+      <c r="L59" s="64" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M59" s="66" t="str">
+      <c r="M59" s="64" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N59" s="66" t="str">
+      <c r="N59" s="64" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O59" s="66" t="str">
+      <c r="O59" s="64" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -8133,11 +8076,11 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q59" s="77"/>
-      <c r="R59" s="78"/>
-      <c r="S59" s="78"/>
-      <c r="T59" s="78"/>
-      <c r="U59" s="78"/>
+      <c r="Q59" s="73"/>
+      <c r="R59" s="70"/>
+      <c r="S59" s="70"/>
+      <c r="T59" s="70"/>
+      <c r="U59" s="70"/>
       <c r="V59" s="27"/>
       <c r="W59" s="27"/>
       <c r="X59" s="27"/>
@@ -8150,23 +8093,23 @@
       <c r="AE59" s="27"/>
       <c r="AF59" s="27"/>
       <c r="AG59" s="27"/>
-      <c r="AH59" s="80"/>
-      <c r="AI59" s="80"/>
-      <c r="AJ59" s="80"/>
-      <c r="AK59" s="80"/>
-      <c r="AL59" s="80"/>
-      <c r="AM59" s="80"/>
-      <c r="AN59" s="80"/>
-      <c r="AO59" s="80"/>
-      <c r="AP59" s="80"/>
-      <c r="AQ59" s="80"/>
-      <c r="AR59" s="80"/>
+      <c r="AH59" s="57"/>
+      <c r="AI59" s="57"/>
+      <c r="AJ59" s="57"/>
+      <c r="AK59" s="57"/>
+      <c r="AL59" s="57"/>
+      <c r="AM59" s="57"/>
+      <c r="AN59" s="57"/>
+      <c r="AO59" s="57"/>
+      <c r="AP59" s="57"/>
+      <c r="AQ59" s="57"/>
+      <c r="AR59" s="57"/>
     </row>
     <row r="60" spans="1:44">
       <c r="A60" s="52"/>
       <c r="B60" s="53"/>
       <c r="C60" s="54"/>
-      <c r="D60" s="60"/>
+      <c r="D60" s="58"/>
       <c r="E60" s="54" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -8191,23 +8134,23 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K60" s="60" t="str">
+      <c r="K60" s="58" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L60" s="60" t="str">
+      <c r="L60" s="58" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M60" s="60" t="str">
+      <c r="M60" s="58" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N60" s="60" t="str">
+      <c r="N60" s="58" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O60" s="60" t="str">
+      <c r="O60" s="58" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -8215,11 +8158,11 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q60" s="75"/>
-      <c r="R60" s="76"/>
-      <c r="S60" s="76"/>
-      <c r="T60" s="76"/>
-      <c r="U60" s="76"/>
+      <c r="Q60" s="71"/>
+      <c r="R60" s="72"/>
+      <c r="S60" s="72"/>
+      <c r="T60" s="72"/>
+      <c r="U60" s="72"/>
       <c r="V60" s="53"/>
       <c r="W60" s="53"/>
       <c r="X60" s="53"/>
@@ -8246,50 +8189,50 @@
     </row>
     <row r="61" spans="1:44">
       <c r="A61" s="27"/>
-      <c r="B61" s="57"/>
+      <c r="B61" s="55"/>
       <c r="C61" s="28"/>
       <c r="D61" s="29"/>
-      <c r="E61" s="61" t="str">
+      <c r="E61" s="59" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="F61" s="61" t="str">
+      <c r="F61" s="59" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="G61" s="61" t="str">
+      <c r="G61" s="59" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H61" s="61" t="str">
+      <c r="H61" s="59" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I61" s="61" t="str">
+      <c r="I61" s="59" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J61" s="61" t="str">
+      <c r="J61" s="59" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K61" s="66" t="str">
+      <c r="K61" s="64" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L61" s="66" t="str">
+      <c r="L61" s="64" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M61" s="66" t="str">
+      <c r="M61" s="64" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N61" s="66" t="str">
+      <c r="N61" s="64" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O61" s="66" t="str">
+      <c r="O61" s="64" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -8297,11 +8240,11 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q61" s="77"/>
-      <c r="R61" s="78"/>
-      <c r="S61" s="78"/>
-      <c r="T61" s="78"/>
-      <c r="U61" s="78"/>
+      <c r="Q61" s="73"/>
+      <c r="R61" s="70"/>
+      <c r="S61" s="70"/>
+      <c r="T61" s="70"/>
+      <c r="U61" s="70"/>
       <c r="V61" s="27"/>
       <c r="W61" s="27"/>
       <c r="X61" s="27"/>
@@ -8314,17 +8257,17 @@
       <c r="AE61" s="27"/>
       <c r="AF61" s="27"/>
       <c r="AG61" s="27"/>
-      <c r="AH61" s="80"/>
-      <c r="AI61" s="80"/>
-      <c r="AJ61" s="80"/>
-      <c r="AK61" s="80"/>
-      <c r="AL61" s="80"/>
-      <c r="AM61" s="80"/>
-      <c r="AN61" s="80"/>
-      <c r="AO61" s="80"/>
-      <c r="AP61" s="80"/>
-      <c r="AQ61" s="80"/>
-      <c r="AR61" s="80"/>
+      <c r="AH61" s="57"/>
+      <c r="AI61" s="57"/>
+      <c r="AJ61" s="57"/>
+      <c r="AK61" s="57"/>
+      <c r="AL61" s="57"/>
+      <c r="AM61" s="57"/>
+      <c r="AN61" s="57"/>
+      <c r="AO61" s="57"/>
+      <c r="AP61" s="57"/>
+      <c r="AQ61" s="57"/>
+      <c r="AR61" s="57"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -8487,10 +8430,10 @@
   </sheetPr>
   <dimension ref="A1:AX67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomLeft" activeCell="Q62" sqref="Q62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
